--- a/teaching/traditional_assets/database/data/qatar/qatar_oilfield_svcs_equip.xlsx
+++ b/teaching/traditional_assets/database/data/qatar/qatar_oilfield_svcs_equip.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="dsm_qfls" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,46 +593,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.099</v>
+        <v>0.0386</v>
       </c>
       <c r="E2">
-        <v>0.0103</v>
+        <v>-0.07820000000000001</v>
       </c>
       <c r="G2">
-        <v>0.04743259160220291</v>
+        <v>0.06984636551249714</v>
       </c>
       <c r="H2">
-        <v>0.04743259160220291</v>
+        <v>0.06984636551249714</v>
       </c>
       <c r="I2">
-        <v>0.0383800573490915</v>
+        <v>0.02733318046319651</v>
       </c>
       <c r="J2">
-        <v>0.0383800573490915</v>
+        <v>0.02733318046319651</v>
       </c>
       <c r="K2">
-        <v>331.3</v>
+        <v>212.4</v>
       </c>
       <c r="L2">
-        <v>0.05273294495909337</v>
+        <v>0.0487044255904609</v>
       </c>
       <c r="M2">
-        <v>218.4</v>
+        <v>218.5</v>
       </c>
       <c r="N2">
-        <v>0.03492332539136831</v>
+        <v>0.04282886096791266</v>
       </c>
       <c r="O2">
-        <v>0.6592212496226985</v>
+        <v>1.028719397363465</v>
       </c>
       <c r="P2">
-        <v>218.4</v>
+        <v>218.5</v>
       </c>
       <c r="Q2">
-        <v>0.03492332539136831</v>
+        <v>0.04282886096791266</v>
       </c>
       <c r="R2">
-        <v>0.6592212496226985</v>
+        <v>1.028719397363465</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +641,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1229.3</v>
+        <v>472.1</v>
       </c>
       <c r="V2">
-        <v>0.1965716295952796</v>
+        <v>0.0925377815238058</v>
       </c>
       <c r="W2">
-        <v>0.1686348366079609</v>
+        <v>0.0949655727443441</v>
       </c>
       <c r="X2">
-        <v>0.08140160925361591</v>
+        <v>0.05795991326880948</v>
       </c>
       <c r="Y2">
-        <v>0.08723322735434501</v>
+        <v>0.03700565947553462</v>
       </c>
       <c r="Z2">
-        <v>7.253752235501564</v>
+        <v>4.331115304399643</v>
       </c>
       <c r="AA2">
-        <v>0.2783994267946507</v>
+        <v>0.1183831562220678</v>
       </c>
       <c r="AB2">
-        <v>0.08092038844978157</v>
+        <v>0.05765524747893893</v>
       </c>
       <c r="AC2">
-        <v>0.1974790383448691</v>
+        <v>0.06072790874312883</v>
       </c>
       <c r="AD2">
-        <v>36.1</v>
+        <v>43.7</v>
       </c>
       <c r="AE2">
-        <v>22.91725849298855</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>59.01725849298855</v>
+        <v>43.7</v>
       </c>
       <c r="AG2">
-        <v>-1170.282741507011</v>
+        <v>-428.4</v>
       </c>
       <c r="AH2">
-        <v>0.009348946907702551</v>
+        <v>0.008493022894235629</v>
       </c>
       <c r="AI2">
-        <v>0.02512102538711447</v>
+        <v>0.01895056374674762</v>
       </c>
       <c r="AJ2">
-        <v>-0.2302157548746941</v>
+        <v>-0.0916696980720262</v>
       </c>
       <c r="AK2">
-        <v>-1.044879203988031</v>
+        <v>-0.2336005234745624</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AM2">
-        <v>-63</v>
+        <v>-63.7</v>
       </c>
       <c r="AN2">
-        <v>0.1144542024666307</v>
+        <v>0.2247942386831276</v>
+      </c>
+      <c r="AO2">
+        <v>19.2258064516129</v>
       </c>
       <c r="AP2">
-        <v>-3.71035395677693</v>
+        <v>-2.203703703703704</v>
       </c>
       <c r="AQ2">
-        <v>-3.790476190476191</v>
+        <v>-1.8712715855573</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +727,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.099</v>
+        <v>0.0386</v>
       </c>
       <c r="E3">
-        <v>0.0103</v>
+        <v>-0.07820000000000001</v>
       </c>
       <c r="G3">
-        <v>0.04743259160220291</v>
+        <v>0.06984636551249714</v>
       </c>
       <c r="H3">
-        <v>0.04743259160220291</v>
+        <v>0.06984636551249714</v>
       </c>
       <c r="I3">
-        <v>0.0383800573490915</v>
+        <v>0.02733318046319651</v>
       </c>
       <c r="J3">
-        <v>0.0383800573490915</v>
+        <v>0.02733318046319651</v>
       </c>
       <c r="K3">
-        <v>331.3</v>
+        <v>212.4</v>
       </c>
       <c r="L3">
-        <v>0.05273294495909337</v>
+        <v>0.0487044255904609</v>
       </c>
       <c r="M3">
-        <v>218.4</v>
+        <v>218.5</v>
       </c>
       <c r="N3">
-        <v>0.03492332539136831</v>
+        <v>0.04282886096791266</v>
       </c>
       <c r="O3">
-        <v>0.6592212496226985</v>
+        <v>1.028719397363465</v>
       </c>
       <c r="P3">
-        <v>218.4</v>
+        <v>218.5</v>
       </c>
       <c r="Q3">
-        <v>0.03492332539136831</v>
+        <v>0.04282886096791266</v>
       </c>
       <c r="R3">
-        <v>0.6592212496226985</v>
+        <v>1.028719397363465</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +775,8791 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1229.3</v>
+        <v>472.1</v>
       </c>
       <c r="V3">
-        <v>0.1965716295952796</v>
+        <v>0.0925377815238058</v>
       </c>
       <c r="W3">
-        <v>0.1686348366079609</v>
+        <v>0.0949655727443441</v>
       </c>
       <c r="X3">
-        <v>0.08140160925361591</v>
+        <v>0.05795991326880948</v>
       </c>
       <c r="Y3">
-        <v>0.08723322735434501</v>
+        <v>0.03700565947553462</v>
       </c>
       <c r="Z3">
-        <v>7.253752235501564</v>
+        <v>4.331115304399643</v>
       </c>
       <c r="AA3">
-        <v>0.2783994267946507</v>
+        <v>0.1183831562220678</v>
       </c>
       <c r="AB3">
-        <v>0.08092038844978157</v>
+        <v>0.05765524747893893</v>
       </c>
       <c r="AC3">
-        <v>0.1974790383448691</v>
+        <v>0.06072790874312883</v>
       </c>
       <c r="AD3">
-        <v>36.1</v>
+        <v>43.7</v>
       </c>
       <c r="AE3">
-        <v>22.91725849298855</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>59.01725849298855</v>
+        <v>43.7</v>
       </c>
       <c r="AG3">
-        <v>-1170.282741507011</v>
+        <v>-428.4</v>
       </c>
       <c r="AH3">
-        <v>0.009348946907702551</v>
+        <v>0.008493022894235629</v>
       </c>
       <c r="AI3">
-        <v>0.02512102538711447</v>
+        <v>0.01895056374674762</v>
       </c>
       <c r="AJ3">
-        <v>-0.2302157548746941</v>
+        <v>-0.0916696980720262</v>
       </c>
       <c r="AK3">
-        <v>-1.044879203988031</v>
+        <v>-0.2336005234745624</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AM3">
-        <v>-63</v>
+        <v>-63.7</v>
       </c>
       <c r="AN3">
-        <v>0.1144542024666307</v>
+        <v>0.2247942386831276</v>
+      </c>
+      <c r="AO3">
+        <v>19.2258064516129</v>
       </c>
       <c r="AP3">
-        <v>-3.71035395677693</v>
+        <v>-2.203703703703704</v>
       </c>
       <c r="AQ3">
-        <v>-3.790476190476191</v>
+        <v>-1.8712715855573</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Qatar Fuel Company Q.P.S.C.("WOQOD") (DSM:QFLS)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>DSM:QFLS</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Oilfield Svcs/Equip.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Qatar</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.008493022894235629</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5101.7</v>
+      </c>
+      <c r="H2">
+        <v>5151.94169440405</v>
+      </c>
+      <c r="I2">
+        <v>4673.3</v>
+      </c>
+      <c r="J2">
+        <v>4679.84169440405</v>
+      </c>
+      <c r="K2">
+        <v>43.7</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.0576552474789389</v>
+      </c>
+      <c r="N2">
+        <v>0.0575876543267566</v>
+      </c>
+      <c r="O2">
+        <v>0.022087433744784</v>
+      </c>
+      <c r="P2">
+        <v>0.01458</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0579599132688095</v>
+      </c>
+      <c r="T2">
+        <v>0.0575876543267566</v>
+      </c>
+      <c r="U2">
+        <v>0.917177499909283</v>
+      </c>
+      <c r="V2">
+        <v>0.910160892133909</v>
+      </c>
+      <c r="W2">
+        <v>10000000</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>5101.7</v>
+      </c>
+      <c r="AB2">
+        <v>0.05305397621902236</v>
+      </c>
+      <c r="AC2">
+        <v>0.02454159304976002</v>
+      </c>
+      <c r="AD2">
+        <v>0.1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>194.4</v>
+      </c>
+      <c r="AH2">
+        <v>15.1</v>
+      </c>
+      <c r="AI2">
+        <v>73.10000000000002</v>
+      </c>
+      <c r="AJ2">
+        <v>43.7</v>
+      </c>
+      <c r="AK2">
+        <v>43.7</v>
+      </c>
+      <c r="AL2">
+        <v>6.2</v>
+      </c>
+      <c r="AM2">
+        <v>43.7</v>
+      </c>
+      <c r="AN2">
+        <v>472.1</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.05758765432675655</v>
+      </c>
+      <c r="C2">
+        <v>5151.941694404047</v>
+      </c>
+      <c r="D2">
+        <v>4679.841694404046</v>
+      </c>
+      <c r="E2">
+        <v>-43.7</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>472.1</v>
+      </c>
+      <c r="H2">
+        <v>5101.7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>194.4</v>
+      </c>
+      <c r="K2">
+        <v>15.1</v>
+      </c>
+      <c r="L2">
+        <v>179.3</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>179.3</v>
+      </c>
+      <c r="O2">
+        <v>17.93</v>
+      </c>
+      <c r="P2">
+        <v>161.37</v>
+      </c>
+      <c r="Q2">
+        <v>176.47</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.05758765432675655</v>
+      </c>
+      <c r="T2">
+        <v>0.9101608921339086</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <v>0.01458</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.05759216667242981</v>
+      </c>
+      <c r="C3">
+        <v>5100.050417204114</v>
+      </c>
+      <c r="D3">
+        <v>4679.404417204113</v>
+      </c>
+      <c r="E3">
+        <v>7.753999999999998</v>
+      </c>
+      <c r="F3">
+        <v>51.454</v>
+      </c>
+      <c r="G3">
+        <v>472.1</v>
+      </c>
+      <c r="H3">
+        <v>5101.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>194.4</v>
+      </c>
+      <c r="K3">
+        <v>15.1</v>
+      </c>
+      <c r="L3">
+        <v>179.3</v>
+      </c>
+      <c r="M3">
+        <v>0.8335547999999999</v>
+      </c>
+      <c r="N3">
+        <v>178.4664452</v>
+      </c>
+      <c r="O3">
+        <v>17.84664452</v>
+      </c>
+      <c r="P3">
+        <v>160.61980068</v>
+      </c>
+      <c r="Q3">
+        <v>175.71980068</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.05802663300245435</v>
+      </c>
+      <c r="T3">
+        <v>0.9184350820623987</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.1</v>
+      </c>
+      <c r="W3">
+        <v>0.01458</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>215.1028342707642</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.05759667901810304</v>
+      </c>
+      <c r="C4">
+        <v>5048.159221713561</v>
+      </c>
+      <c r="D4">
+        <v>4678.967221713561</v>
+      </c>
+      <c r="E4">
+        <v>59.208</v>
+      </c>
+      <c r="F4">
+        <v>102.908</v>
+      </c>
+      <c r="G4">
+        <v>472.1</v>
+      </c>
+      <c r="H4">
+        <v>5101.7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>194.4</v>
+      </c>
+      <c r="K4">
+        <v>15.1</v>
+      </c>
+      <c r="L4">
+        <v>179.3</v>
+      </c>
+      <c r="M4">
+        <v>1.6671096</v>
+      </c>
+      <c r="N4">
+        <v>177.6328904</v>
+      </c>
+      <c r="O4">
+        <v>17.76328904</v>
+      </c>
+      <c r="P4">
+        <v>159.86960136</v>
+      </c>
+      <c r="Q4">
+        <v>174.96960136</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.05847457042663576</v>
+      </c>
+      <c r="T4">
+        <v>0.9268781330098376</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.1</v>
+      </c>
+      <c r="W4">
+        <v>0.01458</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>107.5514171353821</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.05760119136377628</v>
+      </c>
+      <c r="C5">
+        <v>4996.268107909492</v>
+      </c>
+      <c r="D5">
+        <v>4678.530107909492</v>
+      </c>
+      <c r="E5">
+        <v>110.662</v>
+      </c>
+      <c r="F5">
+        <v>154.362</v>
+      </c>
+      <c r="G5">
+        <v>472.1</v>
+      </c>
+      <c r="H5">
+        <v>5101.7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>194.4</v>
+      </c>
+      <c r="K5">
+        <v>15.1</v>
+      </c>
+      <c r="L5">
+        <v>179.3</v>
+      </c>
+      <c r="M5">
+        <v>2.5006644</v>
+      </c>
+      <c r="N5">
+        <v>176.7993356</v>
+      </c>
+      <c r="O5">
+        <v>17.67993356</v>
+      </c>
+      <c r="P5">
+        <v>159.11940204</v>
+      </c>
+      <c r="Q5">
+        <v>174.21940204</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.05893174367399617</v>
+      </c>
+      <c r="T5">
+        <v>0.9354952674819658</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>0.01458</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>71.70094475692142</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.05760570370944953</v>
+      </c>
+      <c r="C6">
+        <v>4944.377075769012</v>
+      </c>
+      <c r="D6">
+        <v>4678.093075769011</v>
+      </c>
+      <c r="E6">
+        <v>162.116</v>
+      </c>
+      <c r="F6">
+        <v>205.816</v>
+      </c>
+      <c r="G6">
+        <v>472.1</v>
+      </c>
+      <c r="H6">
+        <v>5101.7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>194.4</v>
+      </c>
+      <c r="K6">
+        <v>15.1</v>
+      </c>
+      <c r="L6">
+        <v>179.3</v>
+      </c>
+      <c r="M6">
+        <v>3.3342192</v>
+      </c>
+      <c r="N6">
+        <v>175.9657808</v>
+      </c>
+      <c r="O6">
+        <v>17.59657808</v>
+      </c>
+      <c r="P6">
+        <v>158.36920272</v>
+      </c>
+      <c r="Q6">
+        <v>173.46920272</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.05939844136400993</v>
+      </c>
+      <c r="T6">
+        <v>0.9442919255889303</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.1</v>
+      </c>
+      <c r="W6">
+        <v>0.01458</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>53.77570856769105</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.05761021605512277</v>
+      </c>
+      <c r="C7">
+        <v>4892.486125269237</v>
+      </c>
+      <c r="D7">
+        <v>4677.656125269237</v>
+      </c>
+      <c r="E7">
+        <v>213.57</v>
+      </c>
+      <c r="F7">
+        <v>257.27</v>
+      </c>
+      <c r="G7">
+        <v>472.1</v>
+      </c>
+      <c r="H7">
+        <v>5101.7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>194.4</v>
+      </c>
+      <c r="K7">
+        <v>15.1</v>
+      </c>
+      <c r="L7">
+        <v>179.3</v>
+      </c>
+      <c r="M7">
+        <v>4.167774</v>
+      </c>
+      <c r="N7">
+        <v>175.132226</v>
+      </c>
+      <c r="O7">
+        <v>17.5132226</v>
+      </c>
+      <c r="P7">
+        <v>157.6190034</v>
+      </c>
+      <c r="Q7">
+        <v>172.7190034</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.05987496426855028</v>
+      </c>
+      <c r="T7">
+        <v>0.9532737764981463</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.1</v>
+      </c>
+      <c r="W7">
+        <v>0.01458</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>43.02056685415285</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.05761472840079602</v>
+      </c>
+      <c r="C8">
+        <v>4840.595256387294</v>
+      </c>
+      <c r="D8">
+        <v>4677.219256387294</v>
+      </c>
+      <c r="E8">
+        <v>265.024</v>
+      </c>
+      <c r="F8">
+        <v>308.724</v>
+      </c>
+      <c r="G8">
+        <v>472.1</v>
+      </c>
+      <c r="H8">
+        <v>5101.7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>194.4</v>
+      </c>
+      <c r="K8">
+        <v>15.1</v>
+      </c>
+      <c r="L8">
+        <v>179.3</v>
+      </c>
+      <c r="M8">
+        <v>5.0013288</v>
+      </c>
+      <c r="N8">
+        <v>174.2986712</v>
+      </c>
+      <c r="O8">
+        <v>17.42986712</v>
+      </c>
+      <c r="P8">
+        <v>156.86880408</v>
+      </c>
+      <c r="Q8">
+        <v>171.96880408</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.06036162595829364</v>
+      </c>
+      <c r="T8">
+        <v>0.962446730618197</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.1</v>
+      </c>
+      <c r="W8">
+        <v>0.01458</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>35.8504723784607</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.05761924074646926</v>
+      </c>
+      <c r="C9">
+        <v>4788.704469100319</v>
+      </c>
+      <c r="D9">
+        <v>4676.782469100319</v>
+      </c>
+      <c r="E9">
+        <v>316.478</v>
+      </c>
+      <c r="F9">
+        <v>360.178</v>
+      </c>
+      <c r="G9">
+        <v>472.1</v>
+      </c>
+      <c r="H9">
+        <v>5101.7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>194.4</v>
+      </c>
+      <c r="K9">
+        <v>15.1</v>
+      </c>
+      <c r="L9">
+        <v>179.3</v>
+      </c>
+      <c r="M9">
+        <v>5.8348836</v>
+      </c>
+      <c r="N9">
+        <v>173.4651164</v>
+      </c>
+      <c r="O9">
+        <v>17.34651164</v>
+      </c>
+      <c r="P9">
+        <v>156.11860476</v>
+      </c>
+      <c r="Q9">
+        <v>171.21860476</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.06085875349082717</v>
+      </c>
+      <c r="T9">
+        <v>0.9718169525687864</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.1</v>
+      </c>
+      <c r="W9">
+        <v>0.01458</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>30.72897632439489</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.05762375309214251</v>
+      </c>
+      <c r="C10">
+        <v>4736.813763385453</v>
+      </c>
+      <c r="D10">
+        <v>4676.345763385452</v>
+      </c>
+      <c r="E10">
+        <v>367.932</v>
+      </c>
+      <c r="F10">
+        <v>411.632</v>
+      </c>
+      <c r="G10">
+        <v>472.1</v>
+      </c>
+      <c r="H10">
+        <v>5101.7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>194.4</v>
+      </c>
+      <c r="K10">
+        <v>15.1</v>
+      </c>
+      <c r="L10">
+        <v>179.3</v>
+      </c>
+      <c r="M10">
+        <v>6.668438399999999</v>
+      </c>
+      <c r="N10">
+        <v>172.6315616</v>
+      </c>
+      <c r="O10">
+        <v>17.26315616</v>
+      </c>
+      <c r="P10">
+        <v>155.36840544</v>
+      </c>
+      <c r="Q10">
+        <v>170.46840544</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.06136668814363316</v>
+      </c>
+      <c r="T10">
+        <v>0.9813908749965623</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.1</v>
+      </c>
+      <c r="W10">
+        <v>0.01458</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>26.88785428384553</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.05762826543781575</v>
+      </c>
+      <c r="C11">
+        <v>4684.923139219845</v>
+      </c>
+      <c r="D11">
+        <v>4675.909139219845</v>
+      </c>
+      <c r="E11">
+        <v>419.386</v>
+      </c>
+      <c r="F11">
+        <v>463.086</v>
+      </c>
+      <c r="G11">
+        <v>472.1</v>
+      </c>
+      <c r="H11">
+        <v>5101.7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>194.4</v>
+      </c>
+      <c r="K11">
+        <v>15.1</v>
+      </c>
+      <c r="L11">
+        <v>179.3</v>
+      </c>
+      <c r="M11">
+        <v>7.501993199999998</v>
+      </c>
+      <c r="N11">
+        <v>171.7980068</v>
+      </c>
+      <c r="O11">
+        <v>17.17980068</v>
+      </c>
+      <c r="P11">
+        <v>154.61820612</v>
+      </c>
+      <c r="Q11">
+        <v>169.71820612</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.06188578619540193</v>
+      </c>
+      <c r="T11">
+        <v>0.9911752133018719</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.1</v>
+      </c>
+      <c r="W11">
+        <v>0.01458</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>23.90031491897381</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.05763277778348899</v>
+      </c>
+      <c r="C12">
+        <v>4633.03259658066</v>
+      </c>
+      <c r="D12">
+        <v>4675.472596580659</v>
+      </c>
+      <c r="E12">
+        <v>470.84</v>
+      </c>
+      <c r="F12">
+        <v>514.54</v>
+      </c>
+      <c r="G12">
+        <v>472.1</v>
+      </c>
+      <c r="H12">
+        <v>5101.7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>194.4</v>
+      </c>
+      <c r="K12">
+        <v>15.1</v>
+      </c>
+      <c r="L12">
+        <v>179.3</v>
+      </c>
+      <c r="M12">
+        <v>8.335547999999999</v>
+      </c>
+      <c r="N12">
+        <v>170.964452</v>
+      </c>
+      <c r="O12">
+        <v>17.0964452</v>
+      </c>
+      <c r="P12">
+        <v>153.8680068</v>
+      </c>
+      <c r="Q12">
+        <v>168.9680068</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.06241641975943221</v>
+      </c>
+      <c r="T12">
+        <v>1.001176981347299</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.1</v>
+      </c>
+      <c r="W12">
+        <v>0.01458</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>21.51028342707642</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.05763729012916224</v>
+      </c>
+      <c r="C13">
+        <v>4581.14213544506</v>
+      </c>
+      <c r="D13">
+        <v>4675.03613544506</v>
+      </c>
+      <c r="E13">
+        <v>522.2939999999999</v>
+      </c>
+      <c r="F13">
+        <v>565.9939999999999</v>
+      </c>
+      <c r="G13">
+        <v>472.1</v>
+      </c>
+      <c r="H13">
+        <v>5101.7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>194.4</v>
+      </c>
+      <c r="K13">
+        <v>15.1</v>
+      </c>
+      <c r="L13">
+        <v>179.3</v>
+      </c>
+      <c r="M13">
+        <v>9.169102799999997</v>
+      </c>
+      <c r="N13">
+        <v>170.1308972</v>
+      </c>
+      <c r="O13">
+        <v>17.01308972</v>
+      </c>
+      <c r="P13">
+        <v>153.11780748</v>
+      </c>
+      <c r="Q13">
+        <v>168.21780748</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.062958977673216</v>
+      </c>
+      <c r="T13">
+        <v>1.011403508225208</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.1</v>
+      </c>
+      <c r="W13">
+        <v>0.01458</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>19.55480311552403</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.05764180247483549</v>
+      </c>
+      <c r="C14">
+        <v>4529.251755790225</v>
+      </c>
+      <c r="D14">
+        <v>4674.599755790225</v>
+      </c>
+      <c r="E14">
+        <v>573.7479999999999</v>
+      </c>
+      <c r="F14">
+        <v>617.448</v>
+      </c>
+      <c r="G14">
+        <v>472.1</v>
+      </c>
+      <c r="H14">
+        <v>5101.7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>194.4</v>
+      </c>
+      <c r="K14">
+        <v>15.1</v>
+      </c>
+      <c r="L14">
+        <v>179.3</v>
+      </c>
+      <c r="M14">
+        <v>10.0026576</v>
+      </c>
+      <c r="N14">
+        <v>169.2973424</v>
+      </c>
+      <c r="O14">
+        <v>16.92973424</v>
+      </c>
+      <c r="P14">
+        <v>152.36760816</v>
+      </c>
+      <c r="Q14">
+        <v>167.46760816</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.0635138664486767</v>
+      </c>
+      <c r="T14">
+        <v>1.021862456168525</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.1</v>
+      </c>
+      <c r="W14">
+        <v>0.01458</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>17.92523618923035</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.05764631482050871</v>
+      </c>
+      <c r="C15">
+        <v>4477.361457593342</v>
+      </c>
+      <c r="D15">
+        <v>4674.163457593342</v>
+      </c>
+      <c r="E15">
+        <v>625.2019999999999</v>
+      </c>
+      <c r="F15">
+        <v>668.9019999999999</v>
+      </c>
+      <c r="G15">
+        <v>472.1</v>
+      </c>
+      <c r="H15">
+        <v>5101.7</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>194.4</v>
+      </c>
+      <c r="K15">
+        <v>15.1</v>
+      </c>
+      <c r="L15">
+        <v>179.3</v>
+      </c>
+      <c r="M15">
+        <v>10.8362124</v>
+      </c>
+      <c r="N15">
+        <v>168.4637876</v>
+      </c>
+      <c r="O15">
+        <v>16.84637876</v>
+      </c>
+      <c r="P15">
+        <v>151.61740884</v>
+      </c>
+      <c r="Q15">
+        <v>166.71740884</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.06408151128794105</v>
+      </c>
+      <c r="T15">
+        <v>1.032561839696744</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.1</v>
+      </c>
+      <c r="W15">
+        <v>0.01458</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>16.54637186698186</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.05765082716618197</v>
+      </c>
+      <c r="C16">
+        <v>4425.471240831602</v>
+      </c>
+      <c r="D16">
+        <v>4673.727240831601</v>
+      </c>
+      <c r="E16">
+        <v>676.6559999999999</v>
+      </c>
+      <c r="F16">
+        <v>720.356</v>
+      </c>
+      <c r="G16">
+        <v>472.1</v>
+      </c>
+      <c r="H16">
+        <v>5101.7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>194.4</v>
+      </c>
+      <c r="K16">
+        <v>15.1</v>
+      </c>
+      <c r="L16">
+        <v>179.3</v>
+      </c>
+      <c r="M16">
+        <v>11.6697672</v>
+      </c>
+      <c r="N16">
+        <v>167.6302328</v>
+      </c>
+      <c r="O16">
+        <v>16.76302328</v>
+      </c>
+      <c r="P16">
+        <v>150.86720952</v>
+      </c>
+      <c r="Q16">
+        <v>165.96720952</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.06466235716997903</v>
+      </c>
+      <c r="T16">
+        <v>1.043510046097714</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.1</v>
+      </c>
+      <c r="W16">
+        <v>0.01458</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>15.36448816219745</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.05765533951185521</v>
+      </c>
+      <c r="C17">
+        <v>4373.581105482206</v>
+      </c>
+      <c r="D17">
+        <v>4673.291105482206</v>
+      </c>
+      <c r="E17">
+        <v>728.1099999999999</v>
+      </c>
+      <c r="F17">
+        <v>771.8099999999999</v>
+      </c>
+      <c r="G17">
+        <v>472.1</v>
+      </c>
+      <c r="H17">
+        <v>5101.7</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>194.4</v>
+      </c>
+      <c r="K17">
+        <v>15.1</v>
+      </c>
+      <c r="L17">
+        <v>179.3</v>
+      </c>
+      <c r="M17">
+        <v>12.503322</v>
+      </c>
+      <c r="N17">
+        <v>166.796678</v>
+      </c>
+      <c r="O17">
+        <v>16.6796678</v>
+      </c>
+      <c r="P17">
+        <v>150.1170102</v>
+      </c>
+      <c r="Q17">
+        <v>165.2170102</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.06525687001394731</v>
+      </c>
+      <c r="T17">
+        <v>1.054715857355176</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.1</v>
+      </c>
+      <c r="W17">
+        <v>0.01458</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>14.34018895138428</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.05765985185752846</v>
+      </c>
+      <c r="C18">
+        <v>4321.691051522369</v>
+      </c>
+      <c r="D18">
+        <v>4672.855051522369</v>
+      </c>
+      <c r="E18">
+        <v>779.564</v>
+      </c>
+      <c r="F18">
+        <v>823.264</v>
+      </c>
+      <c r="G18">
+        <v>472.1</v>
+      </c>
+      <c r="H18">
+        <v>5101.7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>194.4</v>
+      </c>
+      <c r="K18">
+        <v>15.1</v>
+      </c>
+      <c r="L18">
+        <v>179.3</v>
+      </c>
+      <c r="M18">
+        <v>13.3368768</v>
+      </c>
+      <c r="N18">
+        <v>165.9631232</v>
+      </c>
+      <c r="O18">
+        <v>16.59631232</v>
+      </c>
+      <c r="P18">
+        <v>149.36681088</v>
+      </c>
+      <c r="Q18">
+        <v>164.46681088</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.06586553792562912</v>
+      </c>
+      <c r="T18">
+        <v>1.066188473642579</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.1</v>
+      </c>
+      <c r="W18">
+        <v>0.01458</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>13.44392714192276</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.05766436420320169</v>
+      </c>
+      <c r="C19">
+        <v>4269.801078929308</v>
+      </c>
+      <c r="D19">
+        <v>4672.419078929308</v>
+      </c>
+      <c r="E19">
+        <v>831.0179999999999</v>
+      </c>
+      <c r="F19">
+        <v>874.718</v>
+      </c>
+      <c r="G19">
+        <v>472.1</v>
+      </c>
+      <c r="H19">
+        <v>5101.7</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>194.4</v>
+      </c>
+      <c r="K19">
+        <v>15.1</v>
+      </c>
+      <c r="L19">
+        <v>179.3</v>
+      </c>
+      <c r="M19">
+        <v>14.1704316</v>
+      </c>
+      <c r="N19">
+        <v>165.1295684</v>
+      </c>
+      <c r="O19">
+        <v>16.51295684</v>
+      </c>
+      <c r="P19">
+        <v>148.61661156</v>
+      </c>
+      <c r="Q19">
+        <v>163.71661156</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.06648887253397795</v>
+      </c>
+      <c r="T19">
+        <v>1.077937538515219</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.1</v>
+      </c>
+      <c r="W19">
+        <v>0.01458</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>12.65310789828025</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.05766887654887494</v>
+      </c>
+      <c r="C20">
+        <v>4217.911187680252</v>
+      </c>
+      <c r="D20">
+        <v>4671.983187680251</v>
+      </c>
+      <c r="E20">
+        <v>882.4719999999999</v>
+      </c>
+      <c r="F20">
+        <v>926.1719999999999</v>
+      </c>
+      <c r="G20">
+        <v>472.1</v>
+      </c>
+      <c r="H20">
+        <v>5101.7</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>194.4</v>
+      </c>
+      <c r="K20">
+        <v>15.1</v>
+      </c>
+      <c r="L20">
+        <v>179.3</v>
+      </c>
+      <c r="M20">
+        <v>15.0039864</v>
+      </c>
+      <c r="N20">
+        <v>164.2960136</v>
+      </c>
+      <c r="O20">
+        <v>16.42960136</v>
+      </c>
+      <c r="P20">
+        <v>147.86641224</v>
+      </c>
+      <c r="Q20">
+        <v>162.96641224</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.06712741042545724</v>
+      </c>
+      <c r="T20">
+        <v>1.089973165945729</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.1</v>
+      </c>
+      <c r="W20">
+        <v>0.01458</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>11.9501574594869</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.05767338889454819</v>
+      </c>
+      <c r="C21">
+        <v>4166.021377752433</v>
+      </c>
+      <c r="D21">
+        <v>4671.547377752433</v>
+      </c>
+      <c r="E21">
+        <v>933.9259999999999</v>
+      </c>
+      <c r="F21">
+        <v>977.626</v>
+      </c>
+      <c r="G21">
+        <v>472.1</v>
+      </c>
+      <c r="H21">
+        <v>5101.7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>194.4</v>
+      </c>
+      <c r="K21">
+        <v>15.1</v>
+      </c>
+      <c r="L21">
+        <v>179.3</v>
+      </c>
+      <c r="M21">
+        <v>15.8375412</v>
+      </c>
+      <c r="N21">
+        <v>163.4624588</v>
+      </c>
+      <c r="O21">
+        <v>16.34624588</v>
+      </c>
+      <c r="P21">
+        <v>147.11621292</v>
+      </c>
+      <c r="Q21">
+        <v>162.21621292</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.06778171468462739</v>
+      </c>
+      <c r="T21">
+        <v>1.102305969362178</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.1</v>
+      </c>
+      <c r="W21">
+        <v>0.01458</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>11.32120180372443</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.05767790124022144</v>
+      </c>
+      <c r="C22">
+        <v>4114.131649123102</v>
+      </c>
+      <c r="D22">
+        <v>4671.111649123101</v>
+      </c>
+      <c r="E22">
+        <v>985.3799999999999</v>
+      </c>
+      <c r="F22">
+        <v>1029.08</v>
+      </c>
+      <c r="G22">
+        <v>472.1</v>
+      </c>
+      <c r="H22">
+        <v>5101.7</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>194.4</v>
+      </c>
+      <c r="K22">
+        <v>15.1</v>
+      </c>
+      <c r="L22">
+        <v>179.3</v>
+      </c>
+      <c r="M22">
+        <v>16.671096</v>
+      </c>
+      <c r="N22">
+        <v>162.628904</v>
+      </c>
+      <c r="O22">
+        <v>16.2628904</v>
+      </c>
+      <c r="P22">
+        <v>146.3660136</v>
+      </c>
+      <c r="Q22">
+        <v>161.4660136</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.06845237655027679</v>
+      </c>
+      <c r="T22">
+        <v>1.114947092864038</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.1</v>
+      </c>
+      <c r="W22">
+        <v>0.01458</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>10.75514171353821</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.05768241358589467</v>
+      </c>
+      <c r="C23">
+        <v>4062.242001769509</v>
+      </c>
+      <c r="D23">
+        <v>4670.676001769508</v>
+      </c>
+      <c r="E23">
+        <v>1036.834</v>
+      </c>
+      <c r="F23">
+        <v>1080.534</v>
+      </c>
+      <c r="G23">
+        <v>472.1</v>
+      </c>
+      <c r="H23">
+        <v>5101.7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>194.4</v>
+      </c>
+      <c r="K23">
+        <v>15.1</v>
+      </c>
+      <c r="L23">
+        <v>179.3</v>
+      </c>
+      <c r="M23">
+        <v>17.5046508</v>
+      </c>
+      <c r="N23">
+        <v>161.7953492</v>
+      </c>
+      <c r="O23">
+        <v>16.17953492</v>
+      </c>
+      <c r="P23">
+        <v>145.61581428</v>
+      </c>
+      <c r="Q23">
+        <v>160.71581428</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.06914001719733504</v>
+      </c>
+      <c r="T23">
+        <v>1.127908244808983</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.1</v>
+      </c>
+      <c r="W23">
+        <v>0.01458</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>10.24299210813163</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.05768692593156792</v>
+      </c>
+      <c r="C24">
+        <v>4010.352435668915</v>
+      </c>
+      <c r="D24">
+        <v>4670.240435668915</v>
+      </c>
+      <c r="E24">
+        <v>1088.288</v>
+      </c>
+      <c r="F24">
+        <v>1131.988</v>
+      </c>
+      <c r="G24">
+        <v>472.1</v>
+      </c>
+      <c r="H24">
+        <v>5101.7</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>194.4</v>
+      </c>
+      <c r="K24">
+        <v>15.1</v>
+      </c>
+      <c r="L24">
+        <v>179.3</v>
+      </c>
+      <c r="M24">
+        <v>18.33820559999999</v>
+      </c>
+      <c r="N24">
+        <v>160.9617944</v>
+      </c>
+      <c r="O24">
+        <v>16.09617944</v>
+      </c>
+      <c r="P24">
+        <v>144.86561496</v>
+      </c>
+      <c r="Q24">
+        <v>159.96561496</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.0698452896558563</v>
+      </c>
+      <c r="T24">
+        <v>1.141201733983285</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.1</v>
+      </c>
+      <c r="W24">
+        <v>0.01458</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>9.777401557762014</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.05769143827724116</v>
+      </c>
+      <c r="C25">
+        <v>3958.462950798593</v>
+      </c>
+      <c r="D25">
+        <v>4669.804950798592</v>
+      </c>
+      <c r="E25">
+        <v>1139.742</v>
+      </c>
+      <c r="F25">
+        <v>1183.442</v>
+      </c>
+      <c r="G25">
+        <v>472.1</v>
+      </c>
+      <c r="H25">
+        <v>5101.7</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>194.4</v>
+      </c>
+      <c r="K25">
+        <v>15.1</v>
+      </c>
+      <c r="L25">
+        <v>179.3</v>
+      </c>
+      <c r="M25">
+        <v>19.1717604</v>
+      </c>
+      <c r="N25">
+        <v>160.1282396</v>
+      </c>
+      <c r="O25">
+        <v>16.01282396</v>
+      </c>
+      <c r="P25">
+        <v>144.11541564</v>
+      </c>
+      <c r="Q25">
+        <v>159.21541564</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.07056888087953397</v>
+      </c>
+      <c r="T25">
+        <v>1.154840508590687</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.1</v>
+      </c>
+      <c r="W25">
+        <v>0.01458</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>9.352297142207139</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.0580415506229144</v>
+      </c>
+      <c r="C26">
+        <v>3873.465570576463</v>
+      </c>
+      <c r="D26">
+        <v>4636.261570576462</v>
+      </c>
+      <c r="E26">
+        <v>1191.196</v>
+      </c>
+      <c r="F26">
+        <v>1234.896</v>
+      </c>
+      <c r="G26">
+        <v>472.1</v>
+      </c>
+      <c r="H26">
+        <v>5101.7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>194.4</v>
+      </c>
+      <c r="K26">
+        <v>15.1</v>
+      </c>
+      <c r="L26">
+        <v>179.3</v>
+      </c>
+      <c r="M26">
+        <v>21.9811488</v>
+      </c>
+      <c r="N26">
+        <v>157.3188512</v>
+      </c>
+      <c r="O26">
+        <v>15.73188512</v>
+      </c>
+      <c r="P26">
+        <v>141.58696608</v>
+      </c>
+      <c r="Q26">
+        <v>156.68696608</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.07131151397751895</v>
+      </c>
+      <c r="T26">
+        <v>1.168838198319335</v>
+      </c>
+      <c r="U26">
+        <v>0.0178</v>
+      </c>
+      <c r="V26">
+        <v>0.1</v>
+      </c>
+      <c r="W26">
+        <v>0.01602</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>8.156989501840778</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.05806046296858765</v>
+      </c>
+      <c r="C27">
+        <v>3820.213339466335</v>
+      </c>
+      <c r="D27">
+        <v>4634.463339466334</v>
+      </c>
+      <c r="E27">
+        <v>1242.65</v>
+      </c>
+      <c r="F27">
+        <v>1286.35</v>
+      </c>
+      <c r="G27">
+        <v>472.1</v>
+      </c>
+      <c r="H27">
+        <v>5101.7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>194.4</v>
+      </c>
+      <c r="K27">
+        <v>15.1</v>
+      </c>
+      <c r="L27">
+        <v>179.3</v>
+      </c>
+      <c r="M27">
+        <v>22.89703</v>
+      </c>
+      <c r="N27">
+        <v>156.40297</v>
+      </c>
+      <c r="O27">
+        <v>15.640297</v>
+      </c>
+      <c r="P27">
+        <v>140.762673</v>
+      </c>
+      <c r="Q27">
+        <v>155.862673</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.07207395062478354</v>
+      </c>
+      <c r="T27">
+        <v>1.183209159774081</v>
+      </c>
+      <c r="U27">
+        <v>0.0178</v>
+      </c>
+      <c r="V27">
+        <v>0.1</v>
+      </c>
+      <c r="W27">
+        <v>0.01602</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>7.830709921767148</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.0580793753142609</v>
+      </c>
+      <c r="C28">
+        <v>3766.96250274751</v>
+      </c>
+      <c r="D28">
+        <v>4632.66650274751</v>
+      </c>
+      <c r="E28">
+        <v>1294.104</v>
+      </c>
+      <c r="F28">
+        <v>1337.804</v>
+      </c>
+      <c r="G28">
+        <v>472.1</v>
+      </c>
+      <c r="H28">
+        <v>5101.7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>194.4</v>
+      </c>
+      <c r="K28">
+        <v>15.1</v>
+      </c>
+      <c r="L28">
+        <v>179.3</v>
+      </c>
+      <c r="M28">
+        <v>23.8129112</v>
+      </c>
+      <c r="N28">
+        <v>155.4870888</v>
+      </c>
+      <c r="O28">
+        <v>15.54870888</v>
+      </c>
+      <c r="P28">
+        <v>139.93837992</v>
+      </c>
+      <c r="Q28">
+        <v>155.03837992</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.07285699366792013</v>
+      </c>
+      <c r="T28">
+        <v>1.197968525592469</v>
+      </c>
+      <c r="U28">
+        <v>0.0178</v>
+      </c>
+      <c r="V28">
+        <v>0.1</v>
+      </c>
+      <c r="W28">
+        <v>0.01602</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>7.529528770929949</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.05863288765993414</v>
+      </c>
+      <c r="C29">
+        <v>3663.530233801779</v>
+      </c>
+      <c r="D29">
+        <v>4580.688233801779</v>
+      </c>
+      <c r="E29">
+        <v>1345.558</v>
+      </c>
+      <c r="F29">
+        <v>1389.258</v>
+      </c>
+      <c r="G29">
+        <v>472.1</v>
+      </c>
+      <c r="H29">
+        <v>5101.7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>194.4</v>
+      </c>
+      <c r="K29">
+        <v>15.1</v>
+      </c>
+      <c r="L29">
+        <v>179.3</v>
+      </c>
+      <c r="M29">
+        <v>27.78516</v>
+      </c>
+      <c r="N29">
+        <v>151.51484</v>
+      </c>
+      <c r="O29">
+        <v>15.151484</v>
+      </c>
+      <c r="P29">
+        <v>136.363356</v>
+      </c>
+      <c r="Q29">
+        <v>151.463356</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.07366148994511526</v>
+      </c>
+      <c r="T29">
+        <v>1.213132257597662</v>
+      </c>
+      <c r="U29">
+        <v>0.02</v>
+      </c>
+      <c r="V29">
+        <v>0.1</v>
+      </c>
+      <c r="W29">
+        <v>0.018</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>6.453085028122927</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.05867160000560739</v>
+      </c>
+      <c r="C30">
+        <v>3608.484509281849</v>
+      </c>
+      <c r="D30">
+        <v>4577.096509281849</v>
+      </c>
+      <c r="E30">
+        <v>1397.012</v>
+      </c>
+      <c r="F30">
+        <v>1440.712</v>
+      </c>
+      <c r="G30">
+        <v>472.1</v>
+      </c>
+      <c r="H30">
+        <v>5101.7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>194.4</v>
+      </c>
+      <c r="K30">
+        <v>15.1</v>
+      </c>
+      <c r="L30">
+        <v>179.3</v>
+      </c>
+      <c r="M30">
+        <v>28.81423999999999</v>
+      </c>
+      <c r="N30">
+        <v>150.48576</v>
+      </c>
+      <c r="O30">
+        <v>15.048576</v>
+      </c>
+      <c r="P30">
+        <v>135.437184</v>
+      </c>
+      <c r="Q30">
+        <v>150.537184</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.07448833334112137</v>
+      </c>
+      <c r="T30">
+        <v>1.228717204380777</v>
+      </c>
+      <c r="U30">
+        <v>0.02</v>
+      </c>
+      <c r="V30">
+        <v>0.1</v>
+      </c>
+      <c r="W30">
+        <v>0.018</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>6.222617705689967</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.05871031235128062</v>
+      </c>
+      <c r="C31">
+        <v>3553.444412902063</v>
+      </c>
+      <c r="D31">
+        <v>4573.510412902062</v>
+      </c>
+      <c r="E31">
+        <v>1448.466</v>
+      </c>
+      <c r="F31">
+        <v>1492.166</v>
+      </c>
+      <c r="G31">
+        <v>472.1</v>
+      </c>
+      <c r="H31">
+        <v>5101.7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>194.4</v>
+      </c>
+      <c r="K31">
+        <v>15.1</v>
+      </c>
+      <c r="L31">
+        <v>179.3</v>
+      </c>
+      <c r="M31">
+        <v>29.84331999999999</v>
+      </c>
+      <c r="N31">
+        <v>149.45668</v>
+      </c>
+      <c r="O31">
+        <v>14.945668</v>
+      </c>
+      <c r="P31">
+        <v>134.511012</v>
+      </c>
+      <c r="Q31">
+        <v>149.611012</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.07533846810039524</v>
+      </c>
+      <c r="T31">
+        <v>1.244741163749331</v>
+      </c>
+      <c r="U31">
+        <v>0.02</v>
+      </c>
+      <c r="V31">
+        <v>0.1</v>
+      </c>
+      <c r="W31">
+        <v>0.018</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>6.008044681355829</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.05874902469695387</v>
+      </c>
+      <c r="C32">
+        <v>3498.409931444045</v>
+      </c>
+      <c r="D32">
+        <v>4569.929931444044</v>
+      </c>
+      <c r="E32">
+        <v>1499.92</v>
+      </c>
+      <c r="F32">
+        <v>1543.62</v>
+      </c>
+      <c r="G32">
+        <v>472.1</v>
+      </c>
+      <c r="H32">
+        <v>5101.7</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>194.4</v>
+      </c>
+      <c r="K32">
+        <v>15.1</v>
+      </c>
+      <c r="L32">
+        <v>179.3</v>
+      </c>
+      <c r="M32">
+        <v>30.87239999999999</v>
+      </c>
+      <c r="N32">
+        <v>148.4276</v>
+      </c>
+      <c r="O32">
+        <v>14.84276</v>
+      </c>
+      <c r="P32">
+        <v>133.58484</v>
+      </c>
+      <c r="Q32">
+        <v>148.68484</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.07621289242421982</v>
+      </c>
+      <c r="T32">
+        <v>1.261222950528416</v>
+      </c>
+      <c r="U32">
+        <v>0.02</v>
+      </c>
+      <c r="V32">
+        <v>0.1</v>
+      </c>
+      <c r="W32">
+        <v>0.018</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>5.807776525310635</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.05909463704262711</v>
+      </c>
+      <c r="C33">
+        <v>3415.23717020844</v>
+      </c>
+      <c r="D33">
+        <v>4538.211170208439</v>
+      </c>
+      <c r="E33">
+        <v>1551.374</v>
+      </c>
+      <c r="F33">
+        <v>1595.074</v>
+      </c>
+      <c r="G33">
+        <v>472.1</v>
+      </c>
+      <c r="H33">
+        <v>5101.7</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>194.4</v>
+      </c>
+      <c r="K33">
+        <v>15.1</v>
+      </c>
+      <c r="L33">
+        <v>179.3</v>
+      </c>
+      <c r="M33">
+        <v>33.6560614</v>
+      </c>
+      <c r="N33">
+        <v>145.6439386</v>
+      </c>
+      <c r="O33">
+        <v>14.56439386</v>
+      </c>
+      <c r="P33">
+        <v>131.07954474</v>
+      </c>
+      <c r="Q33">
+        <v>146.17954474</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.07711266238061901</v>
+      </c>
+      <c r="T33">
+        <v>1.27818247025762</v>
+      </c>
+      <c r="U33">
+        <v>0.0211</v>
+      </c>
+      <c r="V33">
+        <v>0.1</v>
+      </c>
+      <c r="W33">
+        <v>0.01899</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>5.327420753992326</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.05914324938830036</v>
+      </c>
+      <c r="C34">
+        <v>3359.357032409403</v>
+      </c>
+      <c r="D34">
+        <v>4533.785032409402</v>
+      </c>
+      <c r="E34">
+        <v>1602.828</v>
+      </c>
+      <c r="F34">
+        <v>1646.528</v>
+      </c>
+      <c r="G34">
+        <v>472.1</v>
+      </c>
+      <c r="H34">
+        <v>5101.7</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>194.4</v>
+      </c>
+      <c r="K34">
+        <v>15.1</v>
+      </c>
+      <c r="L34">
+        <v>179.3</v>
+      </c>
+      <c r="M34">
+        <v>34.7417408</v>
+      </c>
+      <c r="N34">
+        <v>144.5582592</v>
+      </c>
+      <c r="O34">
+        <v>14.45582592</v>
+      </c>
+      <c r="P34">
+        <v>130.10243328</v>
+      </c>
+      <c r="Q34">
+        <v>145.20243328</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.07803889615926524</v>
+      </c>
+      <c r="T34">
+        <v>1.295640799390623</v>
+      </c>
+      <c r="U34">
+        <v>0.0211</v>
+      </c>
+      <c r="V34">
+        <v>0.1</v>
+      </c>
+      <c r="W34">
+        <v>0.01899</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>5.160938855430065</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.0591918617339736</v>
+      </c>
+      <c r="C35">
+        <v>3303.48551986239</v>
+      </c>
+      <c r="D35">
+        <v>4529.36751986239</v>
+      </c>
+      <c r="E35">
+        <v>1654.282</v>
+      </c>
+      <c r="F35">
+        <v>1697.982</v>
+      </c>
+      <c r="G35">
+        <v>472.1</v>
+      </c>
+      <c r="H35">
+        <v>5101.7</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>194.4</v>
+      </c>
+      <c r="K35">
+        <v>15.1</v>
+      </c>
+      <c r="L35">
+        <v>179.3</v>
+      </c>
+      <c r="M35">
+        <v>35.8274202</v>
+      </c>
+      <c r="N35">
+        <v>143.4725798</v>
+      </c>
+      <c r="O35">
+        <v>14.34725798</v>
+      </c>
+      <c r="P35">
+        <v>129.12532182</v>
+      </c>
+      <c r="Q35">
+        <v>144.22532182</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.07899277870742329</v>
+      </c>
+      <c r="T35">
+        <v>1.31362027267685</v>
+      </c>
+      <c r="U35">
+        <v>0.0211</v>
+      </c>
+      <c r="V35">
+        <v>0.1</v>
+      </c>
+      <c r="W35">
+        <v>0.01899</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>5.004546768901882</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.05924047407964684</v>
+      </c>
+      <c r="C36">
+        <v>3247.622607379791</v>
+      </c>
+      <c r="D36">
+        <v>4524.95860737979</v>
+      </c>
+      <c r="E36">
+        <v>1705.736</v>
+      </c>
+      <c r="F36">
+        <v>1749.436</v>
+      </c>
+      <c r="G36">
+        <v>472.1</v>
+      </c>
+      <c r="H36">
+        <v>5101.7</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>194.4</v>
+      </c>
+      <c r="K36">
+        <v>15.1</v>
+      </c>
+      <c r="L36">
+        <v>179.3</v>
+      </c>
+      <c r="M36">
+        <v>36.9130996</v>
+      </c>
+      <c r="N36">
+        <v>142.3869004</v>
+      </c>
+      <c r="O36">
+        <v>14.23869004</v>
+      </c>
+      <c r="P36">
+        <v>128.14821036</v>
+      </c>
+      <c r="Q36">
+        <v>143.24821036</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.0799755667873437</v>
+      </c>
+      <c r="T36">
+        <v>1.332144578486903</v>
+      </c>
+      <c r="U36">
+        <v>0.0211</v>
+      </c>
+      <c r="V36">
+        <v>0.1</v>
+      </c>
+      <c r="W36">
+        <v>0.01899</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>4.857354216875356</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.05928908642532008</v>
+      </c>
+      <c r="C37">
+        <v>3191.768269871968</v>
+      </c>
+      <c r="D37">
+        <v>4520.558269871968</v>
+      </c>
+      <c r="E37">
+        <v>1757.19</v>
+      </c>
+      <c r="F37">
+        <v>1800.89</v>
+      </c>
+      <c r="G37">
+        <v>472.1</v>
+      </c>
+      <c r="H37">
+        <v>5101.7</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>194.4</v>
+      </c>
+      <c r="K37">
+        <v>15.1</v>
+      </c>
+      <c r="L37">
+        <v>179.3</v>
+      </c>
+      <c r="M37">
+        <v>37.99877900000001</v>
+      </c>
+      <c r="N37">
+        <v>141.301221</v>
+      </c>
+      <c r="O37">
+        <v>14.1301221</v>
+      </c>
+      <c r="P37">
+        <v>127.1710989</v>
+      </c>
+      <c r="Q37">
+        <v>142.2710989</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.08098859450049245</v>
+      </c>
+      <c r="T37">
+        <v>1.351238862937264</v>
+      </c>
+      <c r="U37">
+        <v>0.0211</v>
+      </c>
+      <c r="V37">
+        <v>0.1</v>
+      </c>
+      <c r="W37">
+        <v>0.01899</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>4.718572667821773</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.05933769877099333</v>
+      </c>
+      <c r="C38">
+        <v>3135.92248234679</v>
+      </c>
+      <c r="D38">
+        <v>4516.16648234679</v>
+      </c>
+      <c r="E38">
+        <v>1808.644</v>
+      </c>
+      <c r="F38">
+        <v>1852.344</v>
+      </c>
+      <c r="G38">
+        <v>472.1</v>
+      </c>
+      <c r="H38">
+        <v>5101.7</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>194.4</v>
+      </c>
+      <c r="K38">
+        <v>15.1</v>
+      </c>
+      <c r="L38">
+        <v>179.3</v>
+      </c>
+      <c r="M38">
+        <v>39.0844584</v>
+      </c>
+      <c r="N38">
+        <v>140.2155416</v>
+      </c>
+      <c r="O38">
+        <v>14.02155416</v>
+      </c>
+      <c r="P38">
+        <v>126.19398744</v>
+      </c>
+      <c r="Q38">
+        <v>141.29398744</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.08203327932967708</v>
+      </c>
+      <c r="T38">
+        <v>1.3709298437767</v>
+      </c>
+      <c r="U38">
+        <v>0.0211</v>
+      </c>
+      <c r="V38">
+        <v>0.1</v>
+      </c>
+      <c r="W38">
+        <v>0.01899</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>4.587501204826726</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.05938631111666657</v>
+      </c>
+      <c r="C39">
+        <v>3080.085219909149</v>
+      </c>
+      <c r="D39">
+        <v>4511.783219909148</v>
+      </c>
+      <c r="E39">
+        <v>1860.098</v>
+      </c>
+      <c r="F39">
+        <v>1903.798</v>
+      </c>
+      <c r="G39">
+        <v>472.1</v>
+      </c>
+      <c r="H39">
+        <v>5101.7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>194.4</v>
+      </c>
+      <c r="K39">
+        <v>15.1</v>
+      </c>
+      <c r="L39">
+        <v>179.3</v>
+      </c>
+      <c r="M39">
+        <v>40.1701378</v>
+      </c>
+      <c r="N39">
+        <v>139.1298622</v>
+      </c>
+      <c r="O39">
+        <v>13.91298622</v>
+      </c>
+      <c r="P39">
+        <v>125.21687598</v>
+      </c>
+      <c r="Q39">
+        <v>140.31687598</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.0831111287566136</v>
+      </c>
+      <c r="T39">
+        <v>1.391245935118975</v>
+      </c>
+      <c r="U39">
+        <v>0.0211</v>
+      </c>
+      <c r="V39">
+        <v>0.1</v>
+      </c>
+      <c r="W39">
+        <v>0.01899</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>4.463514685777355</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.05943492346233981</v>
+      </c>
+      <c r="C40">
+        <v>3024.256457760489</v>
+      </c>
+      <c r="D40">
+        <v>4507.408457760489</v>
+      </c>
+      <c r="E40">
+        <v>1911.552</v>
+      </c>
+      <c r="F40">
+        <v>1955.252</v>
+      </c>
+      <c r="G40">
+        <v>472.1</v>
+      </c>
+      <c r="H40">
+        <v>5101.7</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>194.4</v>
+      </c>
+      <c r="K40">
+        <v>15.1</v>
+      </c>
+      <c r="L40">
+        <v>179.3</v>
+      </c>
+      <c r="M40">
+        <v>41.2558172</v>
+      </c>
+      <c r="N40">
+        <v>138.0441828</v>
+      </c>
+      <c r="O40">
+        <v>13.80441828</v>
+      </c>
+      <c r="P40">
+        <v>124.23976452</v>
+      </c>
+      <c r="Q40">
+        <v>139.33976452</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.08422374751990293</v>
+      </c>
+      <c r="T40">
+        <v>1.412217384246484</v>
+      </c>
+      <c r="U40">
+        <v>0.0211</v>
+      </c>
+      <c r="V40">
+        <v>0.1</v>
+      </c>
+      <c r="W40">
+        <v>0.01899</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>4.34605377299374</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06001003580801306</v>
+      </c>
+      <c r="C41">
+        <v>2921.683064730197</v>
+      </c>
+      <c r="D41">
+        <v>4456.289064730197</v>
+      </c>
+      <c r="E41">
+        <v>1963.006</v>
+      </c>
+      <c r="F41">
+        <v>2006.706</v>
+      </c>
+      <c r="G41">
+        <v>472.1</v>
+      </c>
+      <c r="H41">
+        <v>5101.7</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>194.4</v>
+      </c>
+      <c r="K41">
+        <v>15.1</v>
+      </c>
+      <c r="L41">
+        <v>179.3</v>
+      </c>
+      <c r="M41">
+        <v>45.3515556</v>
+      </c>
+      <c r="N41">
+        <v>133.9484444</v>
+      </c>
+      <c r="O41">
+        <v>13.39484444</v>
+      </c>
+      <c r="P41">
+        <v>120.55359996</v>
+      </c>
+      <c r="Q41">
+        <v>135.65359996</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.08537284558690665</v>
+      </c>
+      <c r="T41">
+        <v>1.433876421869977</v>
+      </c>
+      <c r="U41">
+        <v>0.0226</v>
+      </c>
+      <c r="V41">
+        <v>0.1</v>
+      </c>
+      <c r="W41">
+        <v>0.02034</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>3.95355787972133</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06007214815368631</v>
+      </c>
+      <c r="C42">
+        <v>2864.777442593379</v>
+      </c>
+      <c r="D42">
+        <v>4450.837442593378</v>
+      </c>
+      <c r="E42">
+        <v>2014.46</v>
+      </c>
+      <c r="F42">
+        <v>2058.16</v>
+      </c>
+      <c r="G42">
+        <v>472.1</v>
+      </c>
+      <c r="H42">
+        <v>5101.7</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>194.4</v>
+      </c>
+      <c r="K42">
+        <v>15.1</v>
+      </c>
+      <c r="L42">
+        <v>179.3</v>
+      </c>
+      <c r="M42">
+        <v>46.514416</v>
+      </c>
+      <c r="N42">
+        <v>132.785584</v>
+      </c>
+      <c r="O42">
+        <v>13.2785584</v>
+      </c>
+      <c r="P42">
+        <v>119.5070256</v>
+      </c>
+      <c r="Q42">
+        <v>134.6070256</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.0865602469228105</v>
+      </c>
+      <c r="T42">
+        <v>1.456257427414254</v>
+      </c>
+      <c r="U42">
+        <v>0.0226</v>
+      </c>
+      <c r="V42">
+        <v>0.1</v>
+      </c>
+      <c r="W42">
+        <v>0.02034</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>3.854718932728297</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06013426049935953</v>
+      </c>
+      <c r="C43">
+        <v>2807.885142693782</v>
+      </c>
+      <c r="D43">
+        <v>4445.399142693782</v>
+      </c>
+      <c r="E43">
+        <v>2065.914</v>
+      </c>
+      <c r="F43">
+        <v>2109.614</v>
+      </c>
+      <c r="G43">
+        <v>472.1</v>
+      </c>
+      <c r="H43">
+        <v>5101.7</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>194.4</v>
+      </c>
+      <c r="K43">
+        <v>15.1</v>
+      </c>
+      <c r="L43">
+        <v>179.3</v>
+      </c>
+      <c r="M43">
+        <v>47.6772764</v>
+      </c>
+      <c r="N43">
+        <v>131.6227236</v>
+      </c>
+      <c r="O43">
+        <v>13.16227236</v>
+      </c>
+      <c r="P43">
+        <v>118.46045124</v>
+      </c>
+      <c r="Q43">
+        <v>133.56045124</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.08778789915145685</v>
+      </c>
+      <c r="T43">
+        <v>1.479397111112573</v>
+      </c>
+      <c r="U43">
+        <v>0.0226</v>
+      </c>
+      <c r="V43">
+        <v>0.1</v>
+      </c>
+      <c r="W43">
+        <v>0.02034</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>3.760701397783705</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06019637284503279</v>
+      </c>
+      <c r="C44">
+        <v>2751.006116257276</v>
+      </c>
+      <c r="D44">
+        <v>4439.974116257275</v>
+      </c>
+      <c r="E44">
+        <v>2117.368</v>
+      </c>
+      <c r="F44">
+        <v>2161.068</v>
+      </c>
+      <c r="G44">
+        <v>472.1</v>
+      </c>
+      <c r="H44">
+        <v>5101.7</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>194.4</v>
+      </c>
+      <c r="K44">
+        <v>15.1</v>
+      </c>
+      <c r="L44">
+        <v>179.3</v>
+      </c>
+      <c r="M44">
+        <v>48.84013679999999</v>
+      </c>
+      <c r="N44">
+        <v>130.4598632</v>
+      </c>
+      <c r="O44">
+        <v>13.04598632</v>
+      </c>
+      <c r="P44">
+        <v>117.41387688</v>
+      </c>
+      <c r="Q44">
+        <v>132.51387688</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.08905788421557376</v>
+      </c>
+      <c r="T44">
+        <v>1.503334714938421</v>
+      </c>
+      <c r="U44">
+        <v>0.0226</v>
+      </c>
+      <c r="V44">
+        <v>0.1</v>
+      </c>
+      <c r="W44">
+        <v>0.02034</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>3.671160888312665</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06025848519070604</v>
+      </c>
+      <c r="C45">
+        <v>2694.140314747533</v>
+      </c>
+      <c r="D45">
+        <v>4434.562314747533</v>
+      </c>
+      <c r="E45">
+        <v>2168.822</v>
+      </c>
+      <c r="F45">
+        <v>2212.522</v>
+      </c>
+      <c r="G45">
+        <v>472.1</v>
+      </c>
+      <c r="H45">
+        <v>5101.7</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>194.4</v>
+      </c>
+      <c r="K45">
+        <v>15.1</v>
+      </c>
+      <c r="L45">
+        <v>179.3</v>
+      </c>
+      <c r="M45">
+        <v>50.0029972</v>
+      </c>
+      <c r="N45">
+        <v>129.2970028</v>
+      </c>
+      <c r="O45">
+        <v>12.92970028</v>
+      </c>
+      <c r="P45">
+        <v>116.36730252</v>
+      </c>
+      <c r="Q45">
+        <v>131.46730252</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.09037243015913339</v>
+      </c>
+      <c r="T45">
+        <v>1.528112234687983</v>
+      </c>
+      <c r="U45">
+        <v>0.0226</v>
+      </c>
+      <c r="V45">
+        <v>0.1</v>
+      </c>
+      <c r="W45">
+        <v>0.02034</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>3.585785053700742</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.06032059753637928</v>
+      </c>
+      <c r="C46">
+        <v>2637.287689864578</v>
+      </c>
+      <c r="D46">
+        <v>4429.163689864577</v>
+      </c>
+      <c r="E46">
+        <v>2220.276</v>
+      </c>
+      <c r="F46">
+        <v>2263.976</v>
+      </c>
+      <c r="G46">
+        <v>472.1</v>
+      </c>
+      <c r="H46">
+        <v>5101.7</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>194.4</v>
+      </c>
+      <c r="K46">
+        <v>15.1</v>
+      </c>
+      <c r="L46">
+        <v>179.3</v>
+      </c>
+      <c r="M46">
+        <v>51.16585759999999</v>
+      </c>
+      <c r="N46">
+        <v>128.1341424</v>
+      </c>
+      <c r="O46">
+        <v>12.81341424</v>
+      </c>
+      <c r="P46">
+        <v>115.32072816</v>
+      </c>
+      <c r="Q46">
+        <v>130.42072816</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.09173392417210585</v>
+      </c>
+      <c r="T46">
+        <v>1.553774665857173</v>
+      </c>
+      <c r="U46">
+        <v>0.0226</v>
+      </c>
+      <c r="V46">
+        <v>0.1</v>
+      </c>
+      <c r="W46">
+        <v>0.02034</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>3.504289938843907</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.06038270988205252</v>
+      </c>
+      <c r="C47">
+        <v>2580.448193543349</v>
+      </c>
+      <c r="D47">
+        <v>4423.778193543349</v>
+      </c>
+      <c r="E47">
+        <v>2271.73</v>
+      </c>
+      <c r="F47">
+        <v>2315.43</v>
+      </c>
+      <c r="G47">
+        <v>472.1</v>
+      </c>
+      <c r="H47">
+        <v>5101.7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>194.4</v>
+      </c>
+      <c r="K47">
+        <v>15.1</v>
+      </c>
+      <c r="L47">
+        <v>179.3</v>
+      </c>
+      <c r="M47">
+        <v>52.32871799999999</v>
+      </c>
+      <c r="N47">
+        <v>126.971282</v>
+      </c>
+      <c r="O47">
+        <v>12.6971282</v>
+      </c>
+      <c r="P47">
+        <v>114.2741538</v>
+      </c>
+      <c r="Q47">
+        <v>129.3741538</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.0931449270582773</v>
+      </c>
+      <c r="T47">
+        <v>1.580370276341605</v>
+      </c>
+      <c r="U47">
+        <v>0.0226</v>
+      </c>
+      <c r="V47">
+        <v>0.1</v>
+      </c>
+      <c r="W47">
+        <v>0.02034</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>3.42641682909182</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06044482222772576</v>
+      </c>
+      <c r="C48">
+        <v>2523.621777952271</v>
+      </c>
+      <c r="D48">
+        <v>4418.405777952271</v>
+      </c>
+      <c r="E48">
+        <v>2323.184</v>
+      </c>
+      <c r="F48">
+        <v>2366.884</v>
+      </c>
+      <c r="G48">
+        <v>472.1</v>
+      </c>
+      <c r="H48">
+        <v>5101.7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>194.4</v>
+      </c>
+      <c r="K48">
+        <v>15.1</v>
+      </c>
+      <c r="L48">
+        <v>179.3</v>
+      </c>
+      <c r="M48">
+        <v>53.49157839999999</v>
+      </c>
+      <c r="N48">
+        <v>125.8084216</v>
+      </c>
+      <c r="O48">
+        <v>12.58084216</v>
+      </c>
+      <c r="P48">
+        <v>113.22757944</v>
+      </c>
+      <c r="Q48">
+        <v>128.32757944</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.09460818931060326</v>
+      </c>
+      <c r="T48">
+        <v>1.607950909436572</v>
+      </c>
+      <c r="U48">
+        <v>0.0226</v>
+      </c>
+      <c r="V48">
+        <v>0.1</v>
+      </c>
+      <c r="W48">
+        <v>0.02034</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>3.351929506720258</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06050693457339901</v>
+      </c>
+      <c r="C49">
+        <v>2466.808395491845</v>
+      </c>
+      <c r="D49">
+        <v>4413.046395491845</v>
+      </c>
+      <c r="E49">
+        <v>2374.638</v>
+      </c>
+      <c r="F49">
+        <v>2418.338</v>
+      </c>
+      <c r="G49">
+        <v>472.1</v>
+      </c>
+      <c r="H49">
+        <v>5101.7</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>194.4</v>
+      </c>
+      <c r="K49">
+        <v>15.1</v>
+      </c>
+      <c r="L49">
+        <v>179.3</v>
+      </c>
+      <c r="M49">
+        <v>54.6544388</v>
+      </c>
+      <c r="N49">
+        <v>124.6455612</v>
+      </c>
+      <c r="O49">
+        <v>12.46455612</v>
+      </c>
+      <c r="P49">
+        <v>112.18100508</v>
+      </c>
+      <c r="Q49">
+        <v>127.28100508</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.09612666900641323</v>
+      </c>
+      <c r="T49">
+        <v>1.636572321138896</v>
+      </c>
+      <c r="U49">
+        <v>0.0226</v>
+      </c>
+      <c r="V49">
+        <v>0.1</v>
+      </c>
+      <c r="W49">
+        <v>0.02034</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>3.280611857641103</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06056904691907224</v>
+      </c>
+      <c r="C50">
+        <v>2410.00799879324</v>
+      </c>
+      <c r="D50">
+        <v>4407.69999879324</v>
+      </c>
+      <c r="E50">
+        <v>2426.092</v>
+      </c>
+      <c r="F50">
+        <v>2469.792</v>
+      </c>
+      <c r="G50">
+        <v>472.1</v>
+      </c>
+      <c r="H50">
+        <v>5101.7</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>194.4</v>
+      </c>
+      <c r="K50">
+        <v>15.1</v>
+      </c>
+      <c r="L50">
+        <v>179.3</v>
+      </c>
+      <c r="M50">
+        <v>55.81729919999999</v>
+      </c>
+      <c r="N50">
+        <v>123.4827008</v>
+      </c>
+      <c r="O50">
+        <v>12.34827008</v>
+      </c>
+      <c r="P50">
+        <v>111.13443072</v>
+      </c>
+      <c r="Q50">
+        <v>126.23443072</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.09770355176744662</v>
+      </c>
+      <c r="T50">
+        <v>1.666294556368233</v>
+      </c>
+      <c r="U50">
+        <v>0.0226</v>
+      </c>
+      <c r="V50">
+        <v>0.1</v>
+      </c>
+      <c r="W50">
+        <v>0.02034</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>3.212265777273581</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06063115926474549</v>
+      </c>
+      <c r="C51">
+        <v>2353.220540716889</v>
+      </c>
+      <c r="D51">
+        <v>4402.366540716888</v>
+      </c>
+      <c r="E51">
+        <v>2477.546</v>
+      </c>
+      <c r="F51">
+        <v>2521.246</v>
+      </c>
+      <c r="G51">
+        <v>472.1</v>
+      </c>
+      <c r="H51">
+        <v>5101.7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>194.4</v>
+      </c>
+      <c r="K51">
+        <v>15.1</v>
+      </c>
+      <c r="L51">
+        <v>179.3</v>
+      </c>
+      <c r="M51">
+        <v>56.98015959999999</v>
+      </c>
+      <c r="N51">
+        <v>122.3198404</v>
+      </c>
+      <c r="O51">
+        <v>12.23198404</v>
+      </c>
+      <c r="P51">
+        <v>110.08785636</v>
+      </c>
+      <c r="Q51">
+        <v>125.18785636</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.09934227306812841</v>
+      </c>
+      <c r="T51">
+        <v>1.6971823694497</v>
+      </c>
+      <c r="U51">
+        <v>0.0226</v>
+      </c>
+      <c r="V51">
+        <v>0.1</v>
+      </c>
+      <c r="W51">
+        <v>0.02034</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>3.146709332839427</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.06069327161041873</v>
+      </c>
+      <c r="C52">
+        <v>2296.445974351119</v>
+      </c>
+      <c r="D52">
+        <v>4397.045974351118</v>
+      </c>
+      <c r="E52">
+        <v>2529</v>
+      </c>
+      <c r="F52">
+        <v>2572.7</v>
+      </c>
+      <c r="G52">
+        <v>472.1</v>
+      </c>
+      <c r="H52">
+        <v>5101.7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>194.4</v>
+      </c>
+      <c r="K52">
+        <v>15.1</v>
+      </c>
+      <c r="L52">
+        <v>179.3</v>
+      </c>
+      <c r="M52">
+        <v>58.14301999999999</v>
+      </c>
+      <c r="N52">
+        <v>121.15698</v>
+      </c>
+      <c r="O52">
+        <v>12.115698</v>
+      </c>
+      <c r="P52">
+        <v>109.041282</v>
+      </c>
+      <c r="Q52">
+        <v>124.141282</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1010465432208375</v>
+      </c>
+      <c r="T52">
+        <v>1.729305695054426</v>
+      </c>
+      <c r="U52">
+        <v>0.0226</v>
+      </c>
+      <c r="V52">
+        <v>0.1</v>
+      </c>
+      <c r="W52">
+        <v>0.02034</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>3.083775146182638</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06075538395609197</v>
+      </c>
+      <c r="C53">
+        <v>2239.684253010761</v>
+      </c>
+      <c r="D53">
+        <v>4391.738253010761</v>
+      </c>
+      <c r="E53">
+        <v>2580.454</v>
+      </c>
+      <c r="F53">
+        <v>2624.154</v>
+      </c>
+      <c r="G53">
+        <v>472.1</v>
+      </c>
+      <c r="H53">
+        <v>5101.7</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>194.4</v>
+      </c>
+      <c r="K53">
+        <v>15.1</v>
+      </c>
+      <c r="L53">
+        <v>179.3</v>
+      </c>
+      <c r="M53">
+        <v>59.3058804</v>
+      </c>
+      <c r="N53">
+        <v>119.9941196</v>
+      </c>
+      <c r="O53">
+        <v>11.99941196</v>
+      </c>
+      <c r="P53">
+        <v>107.99470764</v>
+      </c>
+      <c r="Q53">
+        <v>123.09470764</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1028203754205959</v>
+      </c>
+      <c r="T53">
+        <v>1.762740176806284</v>
+      </c>
+      <c r="U53">
+        <v>0.0226</v>
+      </c>
+      <c r="V53">
+        <v>0.1</v>
+      </c>
+      <c r="W53">
+        <v>0.02034</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>3.023308966845723</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06259589630176522</v>
+      </c>
+      <c r="C54">
+        <v>2036.566634711428</v>
+      </c>
+      <c r="D54">
+        <v>4240.074634711427</v>
+      </c>
+      <c r="E54">
+        <v>2631.908</v>
+      </c>
+      <c r="F54">
+        <v>2675.608</v>
+      </c>
+      <c r="G54">
+        <v>472.1</v>
+      </c>
+      <c r="H54">
+        <v>5101.7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>194.4</v>
+      </c>
+      <c r="K54">
+        <v>15.1</v>
+      </c>
+      <c r="L54">
+        <v>179.3</v>
+      </c>
+      <c r="M54">
+        <v>70.6360512</v>
+      </c>
+      <c r="N54">
+        <v>108.6639488</v>
+      </c>
+      <c r="O54">
+        <v>10.86639488</v>
+      </c>
+      <c r="P54">
+        <v>97.79755392000001</v>
+      </c>
+      <c r="Q54">
+        <v>112.89755392</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1046681172953442</v>
+      </c>
+      <c r="T54">
+        <v>1.79756776196447</v>
+      </c>
+      <c r="U54">
+        <v>0.0264</v>
+      </c>
+      <c r="V54">
+        <v>0.1</v>
+      </c>
+      <c r="W54">
+        <v>0.02376</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Baa2/BBB</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>2.538363865957445</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.1222798005145891</v>
+      </c>
+      <c r="C55">
+        <v>-254.7940317962975</v>
+      </c>
+      <c r="D55">
+        <v>2000.167968203702</v>
+      </c>
+      <c r="E55">
+        <v>2683.362</v>
+      </c>
+      <c r="F55">
+        <v>2727.062</v>
+      </c>
+      <c r="G55">
+        <v>472.1</v>
+      </c>
+      <c r="H55">
+        <v>5101.7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>194.4</v>
+      </c>
+      <c r="K55">
+        <v>15.1</v>
+      </c>
+      <c r="L55">
+        <v>179.3</v>
+      </c>
+      <c r="M55">
+        <v>382.3340924</v>
+      </c>
+      <c r="N55">
+        <v>-203.0340924</v>
+      </c>
+      <c r="O55">
+        <v>-20.30340924</v>
+      </c>
+      <c r="P55">
+        <v>-182.73068316</v>
+      </c>
+      <c r="Q55">
+        <v>-167.63068316</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1094860987867563</v>
+      </c>
+      <c r="T55">
+        <v>1.888380587595522</v>
+      </c>
+      <c r="U55">
+        <v>0.1402</v>
+      </c>
+      <c r="V55">
+        <v>0.04689615798436708</v>
+      </c>
+      <c r="W55">
+        <v>0.1336251586505917</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>0.4689615798436708</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.1235888005145891</v>
+      </c>
+      <c r="C56">
+        <v>-329.156837021219</v>
+      </c>
+      <c r="D56">
+        <v>1977.259162978781</v>
+      </c>
+      <c r="E56">
+        <v>2734.816</v>
+      </c>
+      <c r="F56">
+        <v>2778.516</v>
+      </c>
+      <c r="G56">
+        <v>472.1</v>
+      </c>
+      <c r="H56">
+        <v>5101.7</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>194.4</v>
+      </c>
+      <c r="K56">
+        <v>15.1</v>
+      </c>
+      <c r="L56">
+        <v>179.3</v>
+      </c>
+      <c r="M56">
+        <v>389.5479432</v>
+      </c>
+      <c r="N56">
+        <v>-210.2479432</v>
+      </c>
+      <c r="O56">
+        <v>-21.02479432</v>
+      </c>
+      <c r="P56">
+        <v>-189.2231488799999</v>
+      </c>
+      <c r="Q56">
+        <v>-174.1231488799999</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1116640574560336</v>
+      </c>
+      <c r="T56">
+        <v>1.929432339499773</v>
+      </c>
+      <c r="U56">
+        <v>0.1402</v>
+      </c>
+      <c r="V56">
+        <v>0.04602771061428622</v>
+      </c>
+      <c r="W56">
+        <v>0.1337469149718771</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>0.4602771061428621</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.1248978005145891</v>
+      </c>
+      <c r="C57">
+        <v>-403.0008153150766</v>
+      </c>
+      <c r="D57">
+        <v>1954.869184684924</v>
+      </c>
+      <c r="E57">
+        <v>2786.27</v>
+      </c>
+      <c r="F57">
+        <v>2829.97</v>
+      </c>
+      <c r="G57">
+        <v>472.1</v>
+      </c>
+      <c r="H57">
+        <v>5101.7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>194.4</v>
+      </c>
+      <c r="K57">
+        <v>15.1</v>
+      </c>
+      <c r="L57">
+        <v>179.3</v>
+      </c>
+      <c r="M57">
+        <v>396.761794</v>
+      </c>
+      <c r="N57">
+        <v>-217.461794</v>
+      </c>
+      <c r="O57">
+        <v>-21.7461794</v>
+      </c>
+      <c r="P57">
+        <v>-195.7156146</v>
+      </c>
+      <c r="Q57">
+        <v>-180.6156146</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1139388142883899</v>
+      </c>
+      <c r="T57">
+        <v>1.972308613710879</v>
+      </c>
+      <c r="U57">
+        <v>0.1402</v>
+      </c>
+      <c r="V57">
+        <v>0.04519084314857191</v>
+      </c>
+      <c r="W57">
+        <v>0.1338642437905702</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.4519084314857191</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.1262068005145891</v>
+      </c>
+      <c r="C58">
+        <v>-476.3433945208094</v>
+      </c>
+      <c r="D58">
+        <v>1932.98060547919</v>
+      </c>
+      <c r="E58">
+        <v>2837.724</v>
+      </c>
+      <c r="F58">
+        <v>2881.424</v>
+      </c>
+      <c r="G58">
+        <v>472.1</v>
+      </c>
+      <c r="H58">
+        <v>5101.7</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>194.4</v>
+      </c>
+      <c r="K58">
+        <v>15.1</v>
+      </c>
+      <c r="L58">
+        <v>179.3</v>
+      </c>
+      <c r="M58">
+        <v>403.9756448</v>
+      </c>
+      <c r="N58">
+        <v>-224.6756448</v>
+      </c>
+      <c r="O58">
+        <v>-22.46756448</v>
+      </c>
+      <c r="P58">
+        <v>-202.20808032</v>
+      </c>
+      <c r="Q58">
+        <v>-187.10808032</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1163169691585806</v>
+      </c>
+      <c r="T58">
+        <v>2.017133809477035</v>
+      </c>
+      <c r="U58">
+        <v>0.1402</v>
+      </c>
+      <c r="V58">
+        <v>0.04438386380663313</v>
+      </c>
+      <c r="W58">
+        <v>0.13397738229431</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.4438386380663313</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.1275158005145891</v>
+      </c>
+      <c r="C59">
+        <v>-549.2012305694434</v>
+      </c>
+      <c r="D59">
+        <v>1911.576769430557</v>
+      </c>
+      <c r="E59">
+        <v>2889.178</v>
+      </c>
+      <c r="F59">
+        <v>2932.878</v>
+      </c>
+      <c r="G59">
+        <v>472.1</v>
+      </c>
+      <c r="H59">
+        <v>5101.7</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>194.4</v>
+      </c>
+      <c r="K59">
+        <v>15.1</v>
+      </c>
+      <c r="L59">
+        <v>179.3</v>
+      </c>
+      <c r="M59">
+        <v>411.1894956</v>
+      </c>
+      <c r="N59">
+        <v>-231.8894956</v>
+      </c>
+      <c r="O59">
+        <v>-23.18894956</v>
+      </c>
+      <c r="P59">
+        <v>-208.70054604</v>
+      </c>
+      <c r="Q59">
+        <v>-193.60054604</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1188057358831987</v>
+      </c>
+      <c r="T59">
+        <v>2.064043898069524</v>
+      </c>
+      <c r="U59">
+        <v>0.1402</v>
+      </c>
+      <c r="V59">
+        <v>0.04360519952932378</v>
+      </c>
+      <c r="W59">
+        <v>0.1340865510259888</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.4360519952932378</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.1288248005145891</v>
+      </c>
+      <c r="C60">
+        <v>-621.5902497488232</v>
+      </c>
+      <c r="D60">
+        <v>1890.641750251176</v>
+      </c>
+      <c r="E60">
+        <v>2940.632</v>
+      </c>
+      <c r="F60">
+        <v>2984.331999999999</v>
+      </c>
+      <c r="G60">
+        <v>472.1</v>
+      </c>
+      <c r="H60">
+        <v>5101.7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>194.4</v>
+      </c>
+      <c r="K60">
+        <v>15.1</v>
+      </c>
+      <c r="L60">
+        <v>179.3</v>
+      </c>
+      <c r="M60">
+        <v>418.4033463999999</v>
+      </c>
+      <c r="N60">
+        <v>-239.1033463999999</v>
+      </c>
+      <c r="O60">
+        <v>-23.91033463999999</v>
+      </c>
+      <c r="P60">
+        <v>-215.1930117599999</v>
+      </c>
+      <c r="Q60">
+        <v>-200.0930117599999</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1214130153089892</v>
+      </c>
+      <c r="T60">
+        <v>2.113187800404512</v>
+      </c>
+      <c r="U60">
+        <v>0.1402</v>
+      </c>
+      <c r="V60">
+        <v>0.04285338574433545</v>
+      </c>
+      <c r="W60">
+        <v>0.1341919553186442</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.4285338574433545</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.1301338005145891</v>
+      </c>
+      <c r="C61">
+        <v>-693.5256882249723</v>
+      </c>
+      <c r="D61">
+        <v>1870.160311775027</v>
+      </c>
+      <c r="E61">
+        <v>2992.086</v>
+      </c>
+      <c r="F61">
+        <v>3035.786</v>
+      </c>
+      <c r="G61">
+        <v>472.1</v>
+      </c>
+      <c r="H61">
+        <v>5101.7</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>194.4</v>
+      </c>
+      <c r="K61">
+        <v>15.1</v>
+      </c>
+      <c r="L61">
+        <v>179.3</v>
+      </c>
+      <c r="M61">
+        <v>425.6171971999999</v>
+      </c>
+      <c r="N61">
+        <v>-246.3171971999999</v>
+      </c>
+      <c r="O61">
+        <v>-24.63171971999999</v>
+      </c>
+      <c r="P61">
+        <v>-221.6854774799999</v>
+      </c>
+      <c r="Q61">
+        <v>-206.5854774799999</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1241474790970133</v>
+      </c>
+      <c r="T61">
+        <v>2.164728966268037</v>
+      </c>
+      <c r="U61">
+        <v>0.1402</v>
+      </c>
+      <c r="V61">
+        <v>0.04212705717239756</v>
+      </c>
+      <c r="W61">
+        <v>0.1342937865844299</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.4212705717239755</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.1314428005145891</v>
+      </c>
+      <c r="C62">
+        <v>-765.0221290221371</v>
+      </c>
+      <c r="D62">
+        <v>1850.117870977863</v>
+      </c>
+      <c r="E62">
+        <v>3043.54</v>
+      </c>
+      <c r="F62">
+        <v>3087.24</v>
+      </c>
+      <c r="G62">
+        <v>472.1</v>
+      </c>
+      <c r="H62">
+        <v>5101.7</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>194.4</v>
+      </c>
+      <c r="K62">
+        <v>15.1</v>
+      </c>
+      <c r="L62">
+        <v>179.3</v>
+      </c>
+      <c r="M62">
+        <v>432.831048</v>
+      </c>
+      <c r="N62">
+        <v>-253.5310479999999</v>
+      </c>
+      <c r="O62">
+        <v>-25.3531048</v>
+      </c>
+      <c r="P62">
+        <v>-228.1779432</v>
+      </c>
+      <c r="Q62">
+        <v>-213.0779432</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1270186660744386</v>
+      </c>
+      <c r="T62">
+        <v>2.218847190424738</v>
+      </c>
+      <c r="U62">
+        <v>0.1402</v>
+      </c>
+      <c r="V62">
+        <v>0.04142493955285759</v>
+      </c>
+      <c r="W62">
+        <v>0.1343922234746893</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.4142493955285759</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.1327518005145891</v>
+      </c>
+      <c r="C63">
+        <v>-836.0935366501758</v>
+      </c>
+      <c r="D63">
+        <v>1830.500463349824</v>
+      </c>
+      <c r="E63">
+        <v>3094.994</v>
+      </c>
+      <c r="F63">
+        <v>3138.694</v>
+      </c>
+      <c r="G63">
+        <v>472.1</v>
+      </c>
+      <c r="H63">
+        <v>5101.7</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>194.4</v>
+      </c>
+      <c r="K63">
+        <v>15.1</v>
+      </c>
+      <c r="L63">
+        <v>179.3</v>
+      </c>
+      <c r="M63">
+        <v>440.0448987999999</v>
+      </c>
+      <c r="N63">
+        <v>-260.7448987999999</v>
+      </c>
+      <c r="O63">
+        <v>-26.07448987999999</v>
+      </c>
+      <c r="P63">
+        <v>-234.6704089199999</v>
+      </c>
+      <c r="Q63">
+        <v>-219.5704089199999</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1300370934096806</v>
+      </c>
+      <c r="T63">
+        <v>2.275740708127937</v>
+      </c>
+      <c r="U63">
+        <v>0.1402</v>
+      </c>
+      <c r="V63">
+        <v>0.04074584218313862</v>
+      </c>
+      <c r="W63">
+        <v>0.134487432925924</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.4074584218313863</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.134060800514589</v>
+      </c>
+      <c r="C64">
+        <v>-906.7532895520635</v>
+      </c>
+      <c r="D64">
+        <v>1811.294710447936</v>
+      </c>
+      <c r="E64">
+        <v>3146.448</v>
+      </c>
+      <c r="F64">
+        <v>3190.148</v>
+      </c>
+      <c r="G64">
+        <v>472.1</v>
+      </c>
+      <c r="H64">
+        <v>5101.7</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>194.4</v>
+      </c>
+      <c r="K64">
+        <v>15.1</v>
+      </c>
+      <c r="L64">
+        <v>179.3</v>
+      </c>
+      <c r="M64">
+        <v>447.2587495999999</v>
+      </c>
+      <c r="N64">
+        <v>-267.9587495999999</v>
+      </c>
+      <c r="O64">
+        <v>-26.79587495999999</v>
+      </c>
+      <c r="P64">
+        <v>-241.1628746399999</v>
+      </c>
+      <c r="Q64">
+        <v>-226.0628746399999</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1332143853415143</v>
+      </c>
+      <c r="T64">
+        <v>2.335628621499724</v>
+      </c>
+      <c r="U64">
+        <v>0.1402</v>
+      </c>
+      <c r="V64">
+        <v>0.04008865118018477</v>
+      </c>
+      <c r="W64">
+        <v>0.1345795711045381</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.4008865118018476</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.1353698005145891</v>
+      </c>
+      <c r="C65">
+        <v>-977.0142105299547</v>
+      </c>
+      <c r="D65">
+        <v>1792.487789470045</v>
+      </c>
+      <c r="E65">
+        <v>3197.902</v>
+      </c>
+      <c r="F65">
+        <v>3241.602</v>
+      </c>
+      <c r="G65">
+        <v>472.1</v>
+      </c>
+      <c r="H65">
+        <v>5101.7</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>194.4</v>
+      </c>
+      <c r="K65">
+        <v>15.1</v>
+      </c>
+      <c r="L65">
+        <v>179.3</v>
+      </c>
+      <c r="M65">
+        <v>454.4726004</v>
+      </c>
+      <c r="N65">
+        <v>-275.1726004</v>
+      </c>
+      <c r="O65">
+        <v>-27.51726004</v>
+      </c>
+      <c r="P65">
+        <v>-247.65534036</v>
+      </c>
+      <c r="Q65">
+        <v>-232.55534036</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1365634227831769</v>
+      </c>
+      <c r="T65">
+        <v>2.398753719378096</v>
+      </c>
+      <c r="U65">
+        <v>0.1402</v>
+      </c>
+      <c r="V65">
+        <v>0.0394523233836739</v>
+      </c>
+      <c r="W65">
+        <v>0.1346687842616089</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.3945232338367389</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1366788005145891</v>
+      </c>
+      <c r="C66">
+        <v>-1046.888595295217</v>
+      </c>
+      <c r="D66">
+        <v>1774.067404704783</v>
+      </c>
+      <c r="E66">
+        <v>3249.356</v>
+      </c>
+      <c r="F66">
+        <v>3293.056</v>
+      </c>
+      <c r="G66">
+        <v>472.1</v>
+      </c>
+      <c r="H66">
+        <v>5101.7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>194.4</v>
+      </c>
+      <c r="K66">
+        <v>15.1</v>
+      </c>
+      <c r="L66">
+        <v>179.3</v>
+      </c>
+      <c r="M66">
+        <v>461.6864512</v>
+      </c>
+      <c r="N66">
+        <v>-282.3864512</v>
+      </c>
+      <c r="O66">
+        <v>-28.23864512</v>
+      </c>
+      <c r="P66">
+        <v>-254.14780608</v>
+      </c>
+      <c r="Q66">
+        <v>-239.04780608</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1400985178604874</v>
+      </c>
+      <c r="T66">
+        <v>2.465385767138598</v>
+      </c>
+      <c r="U66">
+        <v>0.1402</v>
+      </c>
+      <c r="V66">
+        <v>0.038835880830804</v>
+      </c>
+      <c r="W66">
+        <v>0.1347552095075213</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.3883588083080399</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1379878005145891</v>
+      </c>
+      <c r="C67">
+        <v>-1116.388239276017</v>
+      </c>
+      <c r="D67">
+        <v>1756.021760723982</v>
+      </c>
+      <c r="E67">
+        <v>3300.81</v>
+      </c>
+      <c r="F67">
+        <v>3344.51</v>
+      </c>
+      <c r="G67">
+        <v>472.1</v>
+      </c>
+      <c r="H67">
+        <v>5101.7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>194.4</v>
+      </c>
+      <c r="K67">
+        <v>15.1</v>
+      </c>
+      <c r="L67">
+        <v>179.3</v>
+      </c>
+      <c r="M67">
+        <v>468.900302</v>
+      </c>
+      <c r="N67">
+        <v>-289.6003019999999</v>
+      </c>
+      <c r="O67">
+        <v>-28.96003019999999</v>
+      </c>
+      <c r="P67">
+        <v>-260.6402717999999</v>
+      </c>
+      <c r="Q67">
+        <v>-245.5402717999999</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.143835618370787</v>
+      </c>
+      <c r="T67">
+        <v>2.535825360485415</v>
+      </c>
+      <c r="U67">
+        <v>0.1402</v>
+      </c>
+      <c r="V67">
+        <v>0.03823840574109932</v>
+      </c>
+      <c r="W67">
+        <v>0.1348389755150979</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.3823840574109931</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1392968005145891</v>
+      </c>
+      <c r="C68">
+        <v>-1185.524462805279</v>
+      </c>
+      <c r="D68">
+        <v>1738.339537194721</v>
+      </c>
+      <c r="E68">
+        <v>3352.264</v>
+      </c>
+      <c r="F68">
+        <v>3395.964</v>
+      </c>
+      <c r="G68">
+        <v>472.1</v>
+      </c>
+      <c r="H68">
+        <v>5101.7</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>194.4</v>
+      </c>
+      <c r="K68">
+        <v>15.1</v>
+      </c>
+      <c r="L68">
+        <v>179.3</v>
+      </c>
+      <c r="M68">
+        <v>476.1141527999999</v>
+      </c>
+      <c r="N68">
+        <v>-296.8141527999999</v>
+      </c>
+      <c r="O68">
+        <v>-29.68141528</v>
+      </c>
+      <c r="P68">
+        <v>-267.1327375199999</v>
+      </c>
+      <c r="Q68">
+        <v>-252.0327375199999</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.147792548322869</v>
+      </c>
+      <c r="T68">
+        <v>2.610408459323222</v>
+      </c>
+      <c r="U68">
+        <v>0.1402</v>
+      </c>
+      <c r="V68">
+        <v>0.03765903595714327</v>
+      </c>
+      <c r="W68">
+        <v>0.1349202031588085</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.3765903595714326</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1406058005145891</v>
+      </c>
+      <c r="C69">
+        <v>-1254.308134802024</v>
+      </c>
+      <c r="D69">
+        <v>1721.009865197976</v>
+      </c>
+      <c r="E69">
+        <v>3403.718</v>
+      </c>
+      <c r="F69">
+        <v>3447.418</v>
+      </c>
+      <c r="G69">
+        <v>472.1</v>
+      </c>
+      <c r="H69">
+        <v>5101.7</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>194.4</v>
+      </c>
+      <c r="K69">
+        <v>15.1</v>
+      </c>
+      <c r="L69">
+        <v>179.3</v>
+      </c>
+      <c r="M69">
+        <v>483.3280036</v>
+      </c>
+      <c r="N69">
+        <v>-304.0280036</v>
+      </c>
+      <c r="O69">
+        <v>-30.40280036</v>
+      </c>
+      <c r="P69">
+        <v>-273.62520324</v>
+      </c>
+      <c r="Q69">
+        <v>-258.5252032399999</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1519892922114408</v>
+      </c>
+      <c r="T69">
+        <v>2.68951174596938</v>
+      </c>
+      <c r="U69">
+        <v>0.1402</v>
+      </c>
+      <c r="V69">
+        <v>0.03709696079360381</v>
+      </c>
+      <c r="W69">
+        <v>0.1349990060967367</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.3709696079360381</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1419148005145891</v>
+      </c>
+      <c r="C70">
+        <v>-1322.74969505022</v>
+      </c>
+      <c r="D70">
+        <v>1704.022304949779</v>
+      </c>
+      <c r="E70">
+        <v>3455.172</v>
+      </c>
+      <c r="F70">
+        <v>3498.872</v>
+      </c>
+      <c r="G70">
+        <v>472.1</v>
+      </c>
+      <c r="H70">
+        <v>5101.7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>194.4</v>
+      </c>
+      <c r="K70">
+        <v>15.1</v>
+      </c>
+      <c r="L70">
+        <v>179.3</v>
+      </c>
+      <c r="M70">
+        <v>490.5418543999999</v>
+      </c>
+      <c r="N70">
+        <v>-311.2418543999999</v>
+      </c>
+      <c r="O70">
+        <v>-31.12418543999999</v>
+      </c>
+      <c r="P70">
+        <v>-280.1176689599999</v>
+      </c>
+      <c r="Q70">
+        <v>-265.0176689599999</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1564483325930483</v>
+      </c>
+      <c r="T70">
+        <v>2.773558988030923</v>
+      </c>
+      <c r="U70">
+        <v>0.1402</v>
+      </c>
+      <c r="V70">
+        <v>0.03655141725252141</v>
+      </c>
+      <c r="W70">
+        <v>0.1350754913011965</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.3655141725252141</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1432238005145891</v>
+      </c>
+      <c r="C71">
+        <v>-1390.85917517107</v>
+      </c>
+      <c r="D71">
+        <v>1687.36682482893</v>
+      </c>
+      <c r="E71">
+        <v>3506.626</v>
+      </c>
+      <c r="F71">
+        <v>3550.326</v>
+      </c>
+      <c r="G71">
+        <v>472.1</v>
+      </c>
+      <c r="H71">
+        <v>5101.7</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>194.4</v>
+      </c>
+      <c r="K71">
+        <v>15.1</v>
+      </c>
+      <c r="L71">
+        <v>179.3</v>
+      </c>
+      <c r="M71">
+        <v>497.7557052</v>
+      </c>
+      <c r="N71">
+        <v>-318.4557052</v>
+      </c>
+      <c r="O71">
+        <v>-31.84557052</v>
+      </c>
+      <c r="P71">
+        <v>-286.61013468</v>
+      </c>
+      <c r="Q71">
+        <v>-271.51013468</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1611950529992757</v>
+      </c>
+      <c r="T71">
+        <v>2.863028632806115</v>
+      </c>
+      <c r="U71">
+        <v>0.1402</v>
+      </c>
+      <c r="V71">
+        <v>0.03602168656770226</v>
+      </c>
+      <c r="W71">
+        <v>0.1351497595432082</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.3602168656770225</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1445328005145891</v>
+      </c>
+      <c r="C72">
+        <v>-1458.646218377276</v>
+      </c>
+      <c r="D72">
+        <v>1671.033781622725</v>
+      </c>
+      <c r="E72">
+        <v>3558.08</v>
+      </c>
+      <c r="F72">
+        <v>3601.78</v>
+      </c>
+      <c r="G72">
+        <v>472.1</v>
+      </c>
+      <c r="H72">
+        <v>5101.7</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>194.4</v>
+      </c>
+      <c r="K72">
+        <v>15.1</v>
+      </c>
+      <c r="L72">
+        <v>179.3</v>
+      </c>
+      <c r="M72">
+        <v>504.969556</v>
+      </c>
+      <c r="N72">
+        <v>-325.669556</v>
+      </c>
+      <c r="O72">
+        <v>-32.5669556</v>
+      </c>
+      <c r="P72">
+        <v>-293.1026004</v>
+      </c>
+      <c r="Q72">
+        <v>-278.0026004</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1662582214325849</v>
+      </c>
+      <c r="T72">
+        <v>2.958462920566318</v>
+      </c>
+      <c r="U72">
+        <v>0.1402</v>
+      </c>
+      <c r="V72">
+        <v>0.03550709104530651</v>
+      </c>
+      <c r="W72">
+        <v>0.135221905835448</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.355070910453065</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1458418005145891</v>
+      </c>
+      <c r="C73">
+        <v>-1526.120098091036</v>
+      </c>
+      <c r="D73">
+        <v>1655.013901908963</v>
+      </c>
+      <c r="E73">
+        <v>3609.534</v>
+      </c>
+      <c r="F73">
+        <v>3653.233999999999</v>
+      </c>
+      <c r="G73">
+        <v>472.1</v>
+      </c>
+      <c r="H73">
+        <v>5101.7</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>194.4</v>
+      </c>
+      <c r="K73">
+        <v>15.1</v>
+      </c>
+      <c r="L73">
+        <v>179.3</v>
+      </c>
+      <c r="M73">
+        <v>512.1834067999999</v>
+      </c>
+      <c r="N73">
+        <v>-332.8834067999999</v>
+      </c>
+      <c r="O73">
+        <v>-33.28834068</v>
+      </c>
+      <c r="P73">
+        <v>-299.59506612</v>
+      </c>
+      <c r="Q73">
+        <v>-284.4950661199999</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.1716705738957774</v>
+      </c>
+      <c r="T73">
+        <v>3.060478883344467</v>
+      </c>
+      <c r="U73">
+        <v>0.1402</v>
+      </c>
+      <c r="V73">
+        <v>0.03500699117142896</v>
+      </c>
+      <c r="W73">
+        <v>0.1352920198377656</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.3500699117142895</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1471508005145891</v>
+      </c>
+      <c r="C74">
+        <v>-1593.289735501278</v>
+      </c>
+      <c r="D74">
+        <v>1639.298264498721</v>
+      </c>
+      <c r="E74">
+        <v>3660.988</v>
+      </c>
+      <c r="F74">
+        <v>3704.688</v>
+      </c>
+      <c r="G74">
+        <v>472.1</v>
+      </c>
+      <c r="H74">
+        <v>5101.7</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>194.4</v>
+      </c>
+      <c r="K74">
+        <v>15.1</v>
+      </c>
+      <c r="L74">
+        <v>179.3</v>
+      </c>
+      <c r="M74">
+        <v>519.3972575999999</v>
+      </c>
+      <c r="N74">
+        <v>-340.0972575999999</v>
+      </c>
+      <c r="O74">
+        <v>-34.00972575999999</v>
+      </c>
+      <c r="P74">
+        <v>-306.0875318399999</v>
+      </c>
+      <c r="Q74">
+        <v>-290.9875318399999</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.1774695229634838</v>
+      </c>
+      <c r="T74">
+        <v>3.169781700606769</v>
+      </c>
+      <c r="U74">
+        <v>0.1402</v>
+      </c>
+      <c r="V74">
+        <v>0.03452078296071467</v>
+      </c>
+      <c r="W74">
+        <v>0.1353601862289078</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.3452078296071467</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1484598005145891</v>
+      </c>
+      <c r="C75">
+        <v>-1660.16371612998</v>
+      </c>
+      <c r="D75">
+        <v>1623.87828387002</v>
+      </c>
+      <c r="E75">
+        <v>3712.442</v>
+      </c>
+      <c r="F75">
+        <v>3756.142</v>
+      </c>
+      <c r="G75">
+        <v>472.1</v>
+      </c>
+      <c r="H75">
+        <v>5101.7</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>194.4</v>
+      </c>
+      <c r="K75">
+        <v>15.1</v>
+      </c>
+      <c r="L75">
+        <v>179.3</v>
+      </c>
+      <c r="M75">
+        <v>526.6111083999999</v>
+      </c>
+      <c r="N75">
+        <v>-347.3111083999999</v>
+      </c>
+      <c r="O75">
+        <v>-34.73111083999999</v>
+      </c>
+      <c r="P75">
+        <v>-312.5799975599999</v>
+      </c>
+      <c r="Q75">
+        <v>-297.4799975599999</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.1836980238139832</v>
+      </c>
+      <c r="T75">
+        <v>3.287181022851464</v>
+      </c>
+      <c r="U75">
+        <v>0.1402</v>
+      </c>
+      <c r="V75">
+        <v>0.03404789552289666</v>
+      </c>
+      <c r="W75">
+        <v>0.1354264850476899</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.3404789552289665</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1497688005145891</v>
+      </c>
+      <c r="C76">
+        <v>-1726.75030547223</v>
+      </c>
+      <c r="D76">
+        <v>1608.745694527769</v>
+      </c>
+      <c r="E76">
+        <v>3763.896</v>
+      </c>
+      <c r="F76">
+        <v>3807.596</v>
+      </c>
+      <c r="G76">
+        <v>472.1</v>
+      </c>
+      <c r="H76">
+        <v>5101.7</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>194.4</v>
+      </c>
+      <c r="K76">
+        <v>15.1</v>
+      </c>
+      <c r="L76">
+        <v>179.3</v>
+      </c>
+      <c r="M76">
+        <v>533.8249591999999</v>
+      </c>
+      <c r="N76">
+        <v>-354.5249591999998</v>
+      </c>
+      <c r="O76">
+        <v>-35.45249591999998</v>
+      </c>
+      <c r="P76">
+        <v>-319.0724632799999</v>
+      </c>
+      <c r="Q76">
+        <v>-303.9724632799998</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.190405640114521</v>
+      </c>
+      <c r="T76">
+        <v>3.413611062191905</v>
+      </c>
+      <c r="U76">
+        <v>0.1402</v>
+      </c>
+      <c r="V76">
+        <v>0.0335877888266413</v>
+      </c>
+      <c r="W76">
+        <v>0.1354909920065049</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.335877888266413</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1510778005145891</v>
+      </c>
+      <c r="C77">
+        <v>-1793.057463769887</v>
+      </c>
+      <c r="D77">
+        <v>1593.892536230112</v>
+      </c>
+      <c r="E77">
+        <v>3815.35</v>
+      </c>
+      <c r="F77">
+        <v>3859.05</v>
+      </c>
+      <c r="G77">
+        <v>472.1</v>
+      </c>
+      <c r="H77">
+        <v>5101.7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>194.4</v>
+      </c>
+      <c r="K77">
+        <v>15.1</v>
+      </c>
+      <c r="L77">
+        <v>179.3</v>
+      </c>
+      <c r="M77">
+        <v>541.0388099999999</v>
+      </c>
+      <c r="N77">
+        <v>-361.7388099999999</v>
+      </c>
+      <c r="O77">
+        <v>-36.17388099999999</v>
+      </c>
+      <c r="P77">
+        <v>-325.5649289999999</v>
+      </c>
+      <c r="Q77">
+        <v>-310.4649289999999</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.1976498657191018</v>
+      </c>
+      <c r="T77">
+        <v>3.550155504679581</v>
+      </c>
+      <c r="U77">
+        <v>0.1402</v>
+      </c>
+      <c r="V77">
+        <v>0.03313995164228608</v>
+      </c>
+      <c r="W77">
+        <v>0.1355537787797515</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.3313995164228608</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1523868005145891</v>
+      </c>
+      <c r="C78">
+        <v>-1859.092859974302</v>
+      </c>
+      <c r="D78">
+        <v>1579.311140025698</v>
+      </c>
+      <c r="E78">
+        <v>3866.804</v>
+      </c>
+      <c r="F78">
+        <v>3910.504</v>
+      </c>
+      <c r="G78">
+        <v>472.1</v>
+      </c>
+      <c r="H78">
+        <v>5101.7</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>194.4</v>
+      </c>
+      <c r="K78">
+        <v>15.1</v>
+      </c>
+      <c r="L78">
+        <v>179.3</v>
+      </c>
+      <c r="M78">
+        <v>548.2526607999999</v>
+      </c>
+      <c r="N78">
+        <v>-368.9526607999999</v>
+      </c>
+      <c r="O78">
+        <v>-36.89526607999999</v>
+      </c>
+      <c r="P78">
+        <v>-332.0573947199999</v>
+      </c>
+      <c r="Q78">
+        <v>-316.9573947199999</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2054977767907311</v>
+      </c>
+      <c r="T78">
+        <v>3.698078650707898</v>
+      </c>
+      <c r="U78">
+        <v>0.1402</v>
+      </c>
+      <c r="V78">
+        <v>0.03270389964699284</v>
+      </c>
+      <c r="W78">
+        <v>0.1356149132694916</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.3270389964699284</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1536958005145891</v>
+      </c>
+      <c r="C79">
+        <v>-1924.863884949587</v>
+      </c>
+      <c r="D79">
+        <v>1564.994115050413</v>
+      </c>
+      <c r="E79">
+        <v>3918.258</v>
+      </c>
+      <c r="F79">
+        <v>3961.958</v>
+      </c>
+      <c r="G79">
+        <v>472.1</v>
+      </c>
+      <c r="H79">
+        <v>5101.7</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>194.4</v>
+      </c>
+      <c r="K79">
+        <v>15.1</v>
+      </c>
+      <c r="L79">
+        <v>179.3</v>
+      </c>
+      <c r="M79">
+        <v>555.4665115999999</v>
+      </c>
+      <c r="N79">
+        <v>-376.1665115999999</v>
+      </c>
+      <c r="O79">
+        <v>-37.61665115999999</v>
+      </c>
+      <c r="P79">
+        <v>-338.5498604399999</v>
+      </c>
+      <c r="Q79">
+        <v>-323.4498604399998</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2140281149120672</v>
+      </c>
+      <c r="T79">
+        <v>3.858864678999545</v>
+      </c>
+      <c r="U79">
+        <v>0.1402</v>
+      </c>
+      <c r="V79">
+        <v>0.03227917367755138</v>
+      </c>
+      <c r="W79">
+        <v>0.1356744598504073</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.3227917367755138</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1550048005145891</v>
+      </c>
+      <c r="C80">
+        <v>-1990.377663964183</v>
+      </c>
+      <c r="D80">
+        <v>1550.934336035816</v>
+      </c>
+      <c r="E80">
+        <v>3969.712</v>
+      </c>
+      <c r="F80">
+        <v>4013.412</v>
+      </c>
+      <c r="G80">
+        <v>472.1</v>
+      </c>
+      <c r="H80">
+        <v>5101.7</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>194.4</v>
+      </c>
+      <c r="K80">
+        <v>15.1</v>
+      </c>
+      <c r="L80">
+        <v>179.3</v>
+      </c>
+      <c r="M80">
+        <v>562.6803623999999</v>
+      </c>
+      <c r="N80">
+        <v>-383.3803623999999</v>
+      </c>
+      <c r="O80">
+        <v>-38.33803623999999</v>
+      </c>
+      <c r="P80">
+        <v>-345.0423261599999</v>
+      </c>
+      <c r="Q80">
+        <v>-329.9423261599999</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2233339383171612</v>
+      </c>
+      <c r="T80">
+        <v>4.03426761895407</v>
+      </c>
+      <c r="U80">
+        <v>0.1402</v>
+      </c>
+      <c r="V80">
+        <v>0.03186533811758276</v>
+      </c>
+      <c r="W80">
+        <v>0.1357324795959149</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.3186533811758276</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1563138005145891</v>
+      </c>
+      <c r="C81">
+        <v>-2055.641068515081</v>
+      </c>
+      <c r="D81">
+        <v>1537.124931484919</v>
+      </c>
+      <c r="E81">
+        <v>4021.166</v>
+      </c>
+      <c r="F81">
+        <v>4064.866</v>
+      </c>
+      <c r="G81">
+        <v>472.1</v>
+      </c>
+      <c r="H81">
+        <v>5101.7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>194.4</v>
+      </c>
+      <c r="K81">
+        <v>15.1</v>
+      </c>
+      <c r="L81">
+        <v>179.3</v>
+      </c>
+      <c r="M81">
+        <v>569.8942132</v>
+      </c>
+      <c r="N81">
+        <v>-390.5942132</v>
+      </c>
+      <c r="O81">
+        <v>-39.05942132</v>
+      </c>
+      <c r="P81">
+        <v>-351.5347918799999</v>
+      </c>
+      <c r="Q81">
+        <v>-336.4347918799999</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2335260306179784</v>
+      </c>
+      <c r="T81">
+        <v>4.226375600809027</v>
+      </c>
+      <c r="U81">
+        <v>0.1402</v>
+      </c>
+      <c r="V81">
+        <v>0.03146197940723362</v>
+      </c>
+      <c r="W81">
+        <v>0.1357890304871058</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.3146197940723361</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1576228005145891</v>
+      </c>
+      <c r="C82">
+        <v>-2120.660727525921</v>
+      </c>
+      <c r="D82">
+        <v>1523.559272474079</v>
+      </c>
+      <c r="E82">
+        <v>4072.62</v>
+      </c>
+      <c r="F82">
+        <v>4116.32</v>
+      </c>
+      <c r="G82">
+        <v>472.1</v>
+      </c>
+      <c r="H82">
+        <v>5101.7</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>194.4</v>
+      </c>
+      <c r="K82">
+        <v>15.1</v>
+      </c>
+      <c r="L82">
+        <v>179.3</v>
+      </c>
+      <c r="M82">
+        <v>577.1080639999999</v>
+      </c>
+      <c r="N82">
+        <v>-397.8080639999999</v>
+      </c>
+      <c r="O82">
+        <v>-39.78080639999999</v>
+      </c>
+      <c r="P82">
+        <v>-358.0272575999999</v>
+      </c>
+      <c r="Q82">
+        <v>-342.9272575999998</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2447373321488774</v>
+      </c>
+      <c r="T82">
+        <v>4.437694380849478</v>
+      </c>
+      <c r="U82">
+        <v>0.1402</v>
+      </c>
+      <c r="V82">
+        <v>0.0310687046646432</v>
+      </c>
+      <c r="W82">
+        <v>0.135844167606017</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.310687046646432</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1589318005145891</v>
+      </c>
+      <c r="C83">
+        <v>-2185.443037957326</v>
+      </c>
+      <c r="D83">
+        <v>1510.230962042674</v>
+      </c>
+      <c r="E83">
+        <v>4124.074000000001</v>
+      </c>
+      <c r="F83">
+        <v>4167.774</v>
+      </c>
+      <c r="G83">
+        <v>472.1</v>
+      </c>
+      <c r="H83">
+        <v>5101.7</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>194.4</v>
+      </c>
+      <c r="K83">
+        <v>15.1</v>
+      </c>
+      <c r="L83">
+        <v>179.3</v>
+      </c>
+      <c r="M83">
+        <v>584.3219148000001</v>
+      </c>
+      <c r="N83">
+        <v>-405.0219148</v>
+      </c>
+      <c r="O83">
+        <v>-40.50219148000001</v>
+      </c>
+      <c r="P83">
+        <v>-364.51972332</v>
+      </c>
+      <c r="Q83">
+        <v>-349.41972332</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.2571287706830288</v>
+      </c>
+      <c r="T83">
+        <v>4.671257242999451</v>
+      </c>
+      <c r="U83">
+        <v>0.1402</v>
+      </c>
+      <c r="V83">
+        <v>0.03068514040952414</v>
+      </c>
+      <c r="W83">
+        <v>0.1358979433145847</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.3068514040952414</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1602408005145891</v>
+      </c>
+      <c r="C84">
+        <v>-2249.994174865135</v>
+      </c>
+      <c r="D84">
+        <v>1497.133825134865</v>
+      </c>
+      <c r="E84">
+        <v>4175.528</v>
+      </c>
+      <c r="F84">
+        <v>4219.228</v>
+      </c>
+      <c r="G84">
+        <v>472.1</v>
+      </c>
+      <c r="H84">
+        <v>5101.7</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>194.4</v>
+      </c>
+      <c r="K84">
+        <v>15.1</v>
+      </c>
+      <c r="L84">
+        <v>179.3</v>
+      </c>
+      <c r="M84">
+        <v>591.5357656</v>
+      </c>
+      <c r="N84">
+        <v>-412.2357656</v>
+      </c>
+      <c r="O84">
+        <v>-41.22357656</v>
+      </c>
+      <c r="P84">
+        <v>-371.01218904</v>
+      </c>
+      <c r="Q84">
+        <v>-355.9121890399999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.2708970357209748</v>
+      </c>
+      <c r="T84">
+        <v>4.930771534277198</v>
+      </c>
+      <c r="U84">
+        <v>0.1402</v>
+      </c>
+      <c r="V84">
+        <v>0.0303109313801397</v>
+      </c>
+      <c r="W84">
+        <v>0.1359504074205044</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.3031093138013969</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1615498005145891</v>
+      </c>
+      <c r="C85">
+        <v>-2314.320100939769</v>
+      </c>
+      <c r="D85">
+        <v>1484.261899060231</v>
+      </c>
+      <c r="E85">
+        <v>4226.982</v>
+      </c>
+      <c r="F85">
+        <v>4270.682</v>
+      </c>
+      <c r="G85">
+        <v>472.1</v>
+      </c>
+      <c r="H85">
+        <v>5101.7</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>194.4</v>
+      </c>
+      <c r="K85">
+        <v>15.1</v>
+      </c>
+      <c r="L85">
+        <v>179.3</v>
+      </c>
+      <c r="M85">
+        <v>598.7496163999999</v>
+      </c>
+      <c r="N85">
+        <v>-419.4496163999999</v>
+      </c>
+      <c r="O85">
+        <v>-41.94496164</v>
+      </c>
+      <c r="P85">
+        <v>-377.5046547599999</v>
+      </c>
+      <c r="Q85">
+        <v>-362.4046547599999</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.2862850966457381</v>
+      </c>
+      <c r="T85">
+        <v>5.220816918646445</v>
+      </c>
+      <c r="U85">
+        <v>0.1402</v>
+      </c>
+      <c r="V85">
+        <v>0.02994573943580067</v>
+      </c>
+      <c r="W85">
+        <v>0.1360016073311007</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.2994573943580067</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.1628588005145891</v>
+      </c>
+      <c r="C86">
+        <v>-2378.426575557694</v>
+      </c>
+      <c r="D86">
+        <v>1471.609424442306</v>
+      </c>
+      <c r="E86">
+        <v>4278.436</v>
+      </c>
+      <c r="F86">
+        <v>4322.136</v>
+      </c>
+      <c r="G86">
+        <v>472.1</v>
+      </c>
+      <c r="H86">
+        <v>5101.7</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>194.4</v>
+      </c>
+      <c r="K86">
+        <v>15.1</v>
+      </c>
+      <c r="L86">
+        <v>179.3</v>
+      </c>
+      <c r="M86">
+        <v>605.9634671999999</v>
+      </c>
+      <c r="N86">
+        <v>-426.6634671999998</v>
+      </c>
+      <c r="O86">
+        <v>-42.66634671999999</v>
+      </c>
+      <c r="P86">
+        <v>-383.9971204799999</v>
+      </c>
+      <c r="Q86">
+        <v>-368.8971204799998</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3035966651860965</v>
+      </c>
+      <c r="T86">
+        <v>5.547117976061845</v>
+      </c>
+      <c r="U86">
+        <v>0.1402</v>
+      </c>
+      <c r="V86">
+        <v>0.02958924253775543</v>
+      </c>
+      <c r="W86">
+        <v>0.1360515881962067</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.2958924253775542</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.1641678005145891</v>
+      </c>
+      <c r="C87">
+        <v>-2442.319163373845</v>
+      </c>
+      <c r="D87">
+        <v>1459.170836626154</v>
+      </c>
+      <c r="E87">
+        <v>4329.889999999999</v>
+      </c>
+      <c r="F87">
+        <v>4373.589999999999</v>
+      </c>
+      <c r="G87">
+        <v>472.1</v>
+      </c>
+      <c r="H87">
+        <v>5101.7</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>194.4</v>
+      </c>
+      <c r="K87">
+        <v>15.1</v>
+      </c>
+      <c r="L87">
+        <v>179.3</v>
+      </c>
+      <c r="M87">
+        <v>613.1773179999999</v>
+      </c>
+      <c r="N87">
+        <v>-433.8773179999999</v>
+      </c>
+      <c r="O87">
+        <v>-43.38773179999999</v>
+      </c>
+      <c r="P87">
+        <v>-390.4895861999999</v>
+      </c>
+      <c r="Q87">
+        <v>-375.3895861999999</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3232164428651697</v>
+      </c>
+      <c r="T87">
+        <v>5.916925841132635</v>
+      </c>
+      <c r="U87">
+        <v>0.1402</v>
+      </c>
+      <c r="V87">
+        <v>0.02924113380201713</v>
+      </c>
+      <c r="W87">
+        <v>0.1361003930409572</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.2924113380201713</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.1654768005145891</v>
+      </c>
+      <c r="C88">
+        <v>-2506.003242481947</v>
+      </c>
+      <c r="D88">
+        <v>1446.940757518053</v>
+      </c>
+      <c r="E88">
+        <v>4381.344</v>
+      </c>
+      <c r="F88">
+        <v>4425.044</v>
+      </c>
+      <c r="G88">
+        <v>472.1</v>
+      </c>
+      <c r="H88">
+        <v>5101.7</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>194.4</v>
+      </c>
+      <c r="K88">
+        <v>15.1</v>
+      </c>
+      <c r="L88">
+        <v>179.3</v>
+      </c>
+      <c r="M88">
+        <v>620.3911687999999</v>
+      </c>
+      <c r="N88">
+        <v>-441.0911687999999</v>
+      </c>
+      <c r="O88">
+        <v>-44.10911687999999</v>
+      </c>
+      <c r="P88">
+        <v>-396.9820519199999</v>
+      </c>
+      <c r="Q88">
+        <v>-381.8820519199999</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.3456390459269675</v>
+      </c>
+      <c r="T88">
+        <v>6.339563401213538</v>
+      </c>
+      <c r="U88">
+        <v>0.1402</v>
+      </c>
+      <c r="V88">
+        <v>0.02890112061827274</v>
+      </c>
+      <c r="W88">
+        <v>0.1361480628893182</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.2890112061827274</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.1667858005145891</v>
+      </c>
+      <c r="C89">
+        <v>-2569.484012167864</v>
+      </c>
+      <c r="D89">
+        <v>1434.913987832136</v>
+      </c>
+      <c r="E89">
+        <v>4432.798</v>
+      </c>
+      <c r="F89">
+        <v>4476.498</v>
+      </c>
+      <c r="G89">
+        <v>472.1</v>
+      </c>
+      <c r="H89">
+        <v>5101.7</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>194.4</v>
+      </c>
+      <c r="K89">
+        <v>15.1</v>
+      </c>
+      <c r="L89">
+        <v>179.3</v>
+      </c>
+      <c r="M89">
+        <v>627.6050195999999</v>
+      </c>
+      <c r="N89">
+        <v>-448.3050195999999</v>
+      </c>
+      <c r="O89">
+        <v>-44.83050195999999</v>
+      </c>
+      <c r="P89">
+        <v>-403.4745176399999</v>
+      </c>
+      <c r="Q89">
+        <v>-388.3745176399999</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.371511280229042</v>
+      </c>
+      <c r="T89">
+        <v>6.82722212438381</v>
+      </c>
+      <c r="U89">
+        <v>0.1402</v>
+      </c>
+      <c r="V89">
+        <v>0.02856892382955696</v>
+      </c>
+      <c r="W89">
+        <v>0.1361946368790961</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.2856892382955696</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.1680948005145891</v>
+      </c>
+      <c r="C90">
+        <v>-2632.766500279473</v>
+      </c>
+      <c r="D90">
+        <v>1423.085499720527</v>
+      </c>
+      <c r="E90">
+        <v>4484.251999999999</v>
+      </c>
+      <c r="F90">
+        <v>4527.951999999999</v>
+      </c>
+      <c r="G90">
+        <v>472.1</v>
+      </c>
+      <c r="H90">
+        <v>5101.7</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>194.4</v>
+      </c>
+      <c r="K90">
+        <v>15.1</v>
+      </c>
+      <c r="L90">
+        <v>179.3</v>
+      </c>
+      <c r="M90">
+        <v>634.8188703999998</v>
+      </c>
+      <c r="N90">
+        <v>-455.5188703999998</v>
+      </c>
+      <c r="O90">
+        <v>-45.55188703999998</v>
+      </c>
+      <c r="P90">
+        <v>-409.9669833599998</v>
+      </c>
+      <c r="Q90">
+        <v>-394.8669833599998</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4016955535814621</v>
+      </c>
+      <c r="T90">
+        <v>7.396157301415795</v>
+      </c>
+      <c r="U90">
+        <v>0.1402</v>
+      </c>
+      <c r="V90">
+        <v>0.02824427696785746</v>
+      </c>
+      <c r="W90">
+        <v>0.1362401523691064</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.2824427696785745</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.1694038005145891</v>
+      </c>
+      <c r="C91">
+        <v>-2695.855570235008</v>
+      </c>
+      <c r="D91">
+        <v>1411.450429764992</v>
+      </c>
+      <c r="E91">
+        <v>4535.706</v>
+      </c>
+      <c r="F91">
+        <v>4579.406</v>
+      </c>
+      <c r="G91">
+        <v>472.1</v>
+      </c>
+      <c r="H91">
+        <v>5101.7</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>194.4</v>
+      </c>
+      <c r="K91">
+        <v>15.1</v>
+      </c>
+      <c r="L91">
+        <v>179.3</v>
+      </c>
+      <c r="M91">
+        <v>642.0327212</v>
+      </c>
+      <c r="N91">
+        <v>-462.7327212</v>
+      </c>
+      <c r="O91">
+        <v>-46.27327212</v>
+      </c>
+      <c r="P91">
+        <v>-416.45944908</v>
+      </c>
+      <c r="Q91">
+        <v>-401.3594490799999</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.4373678766343224</v>
+      </c>
+      <c r="T91">
+        <v>8.06853523790814</v>
+      </c>
+      <c r="U91">
+        <v>0.1402</v>
+      </c>
+      <c r="V91">
+        <v>0.02792692554125231</v>
+      </c>
+      <c r="W91">
+        <v>0.1362846450391164</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.2792692554125231</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.1707128005145891</v>
+      </c>
+      <c r="C92">
+        <v>-2758.755927690378</v>
+      </c>
+      <c r="D92">
+        <v>1400.004072309622</v>
+      </c>
+      <c r="E92">
+        <v>4587.16</v>
+      </c>
+      <c r="F92">
+        <v>4630.86</v>
+      </c>
+      <c r="G92">
+        <v>472.1</v>
+      </c>
+      <c r="H92">
+        <v>5101.7</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>194.4</v>
+      </c>
+      <c r="K92">
+        <v>15.1</v>
+      </c>
+      <c r="L92">
+        <v>179.3</v>
+      </c>
+      <c r="M92">
+        <v>649.2465719999999</v>
+      </c>
+      <c r="N92">
+        <v>-469.9465719999999</v>
+      </c>
+      <c r="O92">
+        <v>-46.99465719999999</v>
+      </c>
+      <c r="P92">
+        <v>-422.9519147999999</v>
+      </c>
+      <c r="Q92">
+        <v>-407.8519147999999</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.4801746642977547</v>
+      </c>
+      <c r="T92">
+        <v>8.875388761698956</v>
+      </c>
+      <c r="U92">
+        <v>0.1402</v>
+      </c>
+      <c r="V92">
+        <v>0.02761662636857173</v>
+      </c>
+      <c r="W92">
+        <v>0.1363281489831262</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.2761662636857173</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.172021800514589</v>
+      </c>
+      <c r="C93">
+        <v>-2821.472126884695</v>
+      </c>
+      <c r="D93">
+        <v>1388.741873115305</v>
+      </c>
+      <c r="E93">
+        <v>4638.614</v>
+      </c>
+      <c r="F93">
+        <v>4682.313999999999</v>
+      </c>
+      <c r="G93">
+        <v>472.1</v>
+      </c>
+      <c r="H93">
+        <v>5101.7</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>194.4</v>
+      </c>
+      <c r="K93">
+        <v>15.1</v>
+      </c>
+      <c r="L93">
+        <v>179.3</v>
+      </c>
+      <c r="M93">
+        <v>656.4604227999998</v>
+      </c>
+      <c r="N93">
+        <v>-477.1604227999998</v>
+      </c>
+      <c r="O93">
+        <v>-47.71604227999998</v>
+      </c>
+      <c r="P93">
+        <v>-429.4443805199999</v>
+      </c>
+      <c r="Q93">
+        <v>-414.3443805199998</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.5324940714419496</v>
+      </c>
+      <c r="T93">
+        <v>9.861543068554395</v>
+      </c>
+      <c r="U93">
+        <v>0.1402</v>
+      </c>
+      <c r="V93">
+        <v>0.02731314695792809</v>
+      </c>
+      <c r="W93">
+        <v>0.1363706967964985</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.2731314695792809</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.1733308005145891</v>
+      </c>
+      <c r="C94">
+        <v>-2884.008576681959</v>
+      </c>
+      <c r="D94">
+        <v>1377.659423318041</v>
+      </c>
+      <c r="E94">
+        <v>4690.068</v>
+      </c>
+      <c r="F94">
+        <v>4733.768</v>
+      </c>
+      <c r="G94">
+        <v>472.1</v>
+      </c>
+      <c r="H94">
+        <v>5101.7</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>194.4</v>
+      </c>
+      <c r="K94">
+        <v>15.1</v>
+      </c>
+      <c r="L94">
+        <v>179.3</v>
+      </c>
+      <c r="M94">
+        <v>663.6742736</v>
+      </c>
+      <c r="N94">
+        <v>-484.3742736</v>
+      </c>
+      <c r="O94">
+        <v>-48.43742736</v>
+      </c>
+      <c r="P94">
+        <v>-435.93684624</v>
+      </c>
+      <c r="Q94">
+        <v>-420.8368462399999</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.5978933303721935</v>
+      </c>
+      <c r="T94">
+        <v>11.0942359521237</v>
+      </c>
+      <c r="U94">
+        <v>0.1402</v>
+      </c>
+      <c r="V94">
+        <v>0.02701626492577669</v>
+      </c>
+      <c r="W94">
+        <v>0.1364123196574061</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.2701626492577669</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.174639800514589</v>
+      </c>
+      <c r="C95">
+        <v>-2946.369546325752</v>
+      </c>
+      <c r="D95">
+        <v>1366.752453674248</v>
+      </c>
+      <c r="E95">
+        <v>4741.522</v>
+      </c>
+      <c r="F95">
+        <v>4785.222</v>
+      </c>
+      <c r="G95">
+        <v>472.1</v>
+      </c>
+      <c r="H95">
+        <v>5101.7</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>194.4</v>
+      </c>
+      <c r="K95">
+        <v>15.1</v>
+      </c>
+      <c r="L95">
+        <v>179.3</v>
+      </c>
+      <c r="M95">
+        <v>670.8881243999999</v>
+      </c>
+      <c r="N95">
+        <v>-491.5881243999999</v>
+      </c>
+      <c r="O95">
+        <v>-49.15881243999999</v>
+      </c>
+      <c r="P95">
+        <v>-442.4293119599999</v>
+      </c>
+      <c r="Q95">
+        <v>-427.3293119599999</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.6819780918539355</v>
+      </c>
+      <c r="T95">
+        <v>12.67912680242708</v>
+      </c>
+      <c r="U95">
+        <v>0.1402</v>
+      </c>
+      <c r="V95">
+        <v>0.02672576745345651</v>
+      </c>
+      <c r="W95">
+        <v>0.1364530474030254</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.2672576745345651</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.1759488005145891</v>
+      </c>
+      <c r="C96">
+        <v>-3008.55917092272</v>
+      </c>
+      <c r="D96">
+        <v>1356.01682907728</v>
+      </c>
+      <c r="E96">
+        <v>4792.976000000001</v>
+      </c>
+      <c r="F96">
+        <v>4836.676</v>
+      </c>
+      <c r="G96">
+        <v>472.1</v>
+      </c>
+      <c r="H96">
+        <v>5101.7</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>194.4</v>
+      </c>
+      <c r="K96">
+        <v>15.1</v>
+      </c>
+      <c r="L96">
+        <v>179.3</v>
+      </c>
+      <c r="M96">
+        <v>678.1019752</v>
+      </c>
+      <c r="N96">
+        <v>-498.8019752</v>
+      </c>
+      <c r="O96">
+        <v>-49.88019752</v>
+      </c>
+      <c r="P96">
+        <v>-448.92177768</v>
+      </c>
+      <c r="Q96">
+        <v>-433.82177768</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.7940911071629251</v>
+      </c>
+      <c r="T96">
+        <v>14.7923146028316</v>
+      </c>
+      <c r="U96">
+        <v>0.1402</v>
+      </c>
+      <c r="V96">
+        <v>0.02644145077841974</v>
+      </c>
+      <c r="W96">
+        <v>0.1364929086008655</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.2644145077841974</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.1772578005145891</v>
+      </c>
+      <c r="C97">
+        <v>-3070.581456669639</v>
+      </c>
+      <c r="D97">
+        <v>1345.448543330361</v>
+      </c>
+      <c r="E97">
+        <v>4844.43</v>
+      </c>
+      <c r="F97">
+        <v>4888.13</v>
+      </c>
+      <c r="G97">
+        <v>472.1</v>
+      </c>
+      <c r="H97">
+        <v>5101.7</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>194.4</v>
+      </c>
+      <c r="K97">
+        <v>15.1</v>
+      </c>
+      <c r="L97">
+        <v>179.3</v>
+      </c>
+      <c r="M97">
+        <v>685.315826</v>
+      </c>
+      <c r="N97">
+        <v>-506.015826</v>
+      </c>
+      <c r="O97">
+        <v>-50.6015826</v>
+      </c>
+      <c r="P97">
+        <v>-455.4142434</v>
+      </c>
+      <c r="Q97">
+        <v>-440.3142434</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>0.9510493285955105</v>
+      </c>
+      <c r="T97">
+        <v>17.75077752339793</v>
+      </c>
+      <c r="U97">
+        <v>0.1402</v>
+      </c>
+      <c r="V97">
+        <v>0.02616311971759426</v>
+      </c>
+      <c r="W97">
+        <v>0.1365319306155933</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.2616311971759426</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.1785668005145891</v>
+      </c>
+      <c r="C98">
+        <v>-3132.440285837941</v>
+      </c>
+      <c r="D98">
+        <v>1335.043714162058</v>
+      </c>
+      <c r="E98">
+        <v>4895.884</v>
+      </c>
+      <c r="F98">
+        <v>4939.584</v>
+      </c>
+      <c r="G98">
+        <v>472.1</v>
+      </c>
+      <c r="H98">
+        <v>5101.7</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>194.4</v>
+      </c>
+      <c r="K98">
+        <v>15.1</v>
+      </c>
+      <c r="L98">
+        <v>179.3</v>
+      </c>
+      <c r="M98">
+        <v>692.5296767999999</v>
+      </c>
+      <c r="N98">
+        <v>-513.2296767999999</v>
+      </c>
+      <c r="O98">
+        <v>-51.32296767999999</v>
+      </c>
+      <c r="P98">
+        <v>-461.9067091199999</v>
+      </c>
+      <c r="Q98">
+        <v>-446.8067091199999</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.186486660744386</v>
+      </c>
+      <c r="T98">
+        <v>22.18847190424737</v>
+      </c>
+      <c r="U98">
+        <v>0.1402</v>
+      </c>
+      <c r="V98">
+        <v>0.025890587220536</v>
+      </c>
+      <c r="W98">
+        <v>0.1365701396716809</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.25890587220536</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.1798758005145891</v>
+      </c>
+      <c r="C99">
+        <v>-3194.139421528737</v>
+      </c>
+      <c r="D99">
+        <v>1324.798578471263</v>
+      </c>
+      <c r="E99">
+        <v>4947.338</v>
+      </c>
+      <c r="F99">
+        <v>4991.038</v>
+      </c>
+      <c r="G99">
+        <v>472.1</v>
+      </c>
+      <c r="H99">
+        <v>5101.7</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>194.4</v>
+      </c>
+      <c r="K99">
+        <v>15.1</v>
+      </c>
+      <c r="L99">
+        <v>179.3</v>
+      </c>
+      <c r="M99">
+        <v>699.7435275999999</v>
+      </c>
+      <c r="N99">
+        <v>-520.4435275999999</v>
+      </c>
+      <c r="O99">
+        <v>-52.04435276</v>
+      </c>
+      <c r="P99">
+        <v>-468.3991748399999</v>
+      </c>
+      <c r="Q99">
+        <v>-453.2991748399999</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.578882214325847</v>
+      </c>
+      <c r="T99">
+        <v>29.58462920566316</v>
+      </c>
+      <c r="U99">
+        <v>0.1402</v>
+      </c>
+      <c r="V99">
+        <v>0.02562367395022119</v>
+      </c>
+      <c r="W99">
+        <v>0.136607560912179</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.2562367395022118</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.1811848005145891</v>
+      </c>
+      <c r="C100">
+        <v>-3255.682512210561</v>
+      </c>
+      <c r="D100">
+        <v>1314.709487789439</v>
+      </c>
+      <c r="E100">
+        <v>4998.791999999999</v>
+      </c>
+      <c r="F100">
+        <v>5042.491999999999</v>
+      </c>
+      <c r="G100">
+        <v>472.1</v>
+      </c>
+      <c r="H100">
+        <v>5101.7</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>194.4</v>
+      </c>
+      <c r="K100">
+        <v>15.1</v>
+      </c>
+      <c r="L100">
+        <v>179.3</v>
+      </c>
+      <c r="M100">
+        <v>706.9573783999998</v>
+      </c>
+      <c r="N100">
+        <v>-527.6573783999997</v>
+      </c>
+      <c r="O100">
+        <v>-52.76573783999998</v>
+      </c>
+      <c r="P100">
+        <v>-474.8916405599998</v>
+      </c>
+      <c r="Q100">
+        <v>-459.7916405599997</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.363673321488772</v>
+      </c>
+      <c r="T100">
+        <v>44.37694380849474</v>
+      </c>
+      <c r="U100">
+        <v>0.1402</v>
+      </c>
+      <c r="V100">
+        <v>0.02536220788950465</v>
+      </c>
+      <c r="W100">
+        <v>0.1366442184538914</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.2536220788950466</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.1824938005145891</v>
+      </c>
+      <c r="C101">
+        <v>-3317.07309605134</v>
+      </c>
+      <c r="D101">
+        <v>1304.77290394866</v>
+      </c>
+      <c r="E101">
+        <v>5050.246</v>
+      </c>
+      <c r="F101">
+        <v>5093.946</v>
+      </c>
+      <c r="G101">
+        <v>472.1</v>
+      </c>
+      <c r="H101">
+        <v>5101.7</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>194.4</v>
+      </c>
+      <c r="K101">
+        <v>15.1</v>
+      </c>
+      <c r="L101">
+        <v>179.3</v>
+      </c>
+      <c r="M101">
+        <v>714.1712292</v>
+      </c>
+      <c r="N101">
+        <v>-534.8712292</v>
+      </c>
+      <c r="O101">
+        <v>-53.48712292</v>
+      </c>
+      <c r="P101">
+        <v>-481.38410628</v>
+      </c>
+      <c r="Q101">
+        <v>-466.28410628</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>4.718046642977543</v>
+      </c>
+      <c r="T101">
+        <v>88.75388761698947</v>
+      </c>
+      <c r="U101">
+        <v>0.1402</v>
+      </c>
+      <c r="V101">
+        <v>0.02510602397142885</v>
+      </c>
+      <c r="W101">
+        <v>0.1366801354392057</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.2510602397142884</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
